--- a/resource_api/siparisler/dosyalar/İç Sipariş Formu.xlsx
+++ b/resource_api/siparisler/dosyalar/İç Sipariş Formu.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'Sayfa1'!$A$1:$M$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sayfa1'!$A$1:$M$63</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="[$$-409]#,##0.00" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -771,360 +771,428 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="139">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="3" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="5" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="5" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="5" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="14" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="14" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="14" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="5" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="5" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="24" fillId="5" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="27" fillId="5" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="14" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="14" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="14" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="5" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="5" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="21" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="28" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="5" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="5" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="24" fillId="5" fontId="26" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="26" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="21" fillId="5" fontId="26" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="26" fillId="5" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="27" fillId="5" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="5" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="3" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="10" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="18" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="22" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="19" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="17" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="36" fillId="3" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="36" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="14" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="40" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="41" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" name="Köprü" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1451,722 +1519,722 @@
   </sheetPr>
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="93" width="4.5546875"/>
-    <col customWidth="1" max="2" min="2" style="104" width="37.109375"/>
-    <col customWidth="1" max="3" min="3" style="104" width="29.88671875"/>
-    <col customWidth="1" max="4" min="4" style="104" width="16.44140625"/>
-    <col customWidth="1" max="5" min="5" style="33" width="10.77734375"/>
-    <col customWidth="1" max="6" min="6" style="104" width="21.44140625"/>
-    <col customWidth="1" max="7" min="7" style="93" width="11.5546875"/>
-    <col customWidth="1" max="8" min="8" style="93" width="10.21875"/>
-    <col customWidth="1" max="9" min="9" style="93" width="14.21875"/>
-    <col customWidth="1" max="10" min="10" style="93" width="11.33203125"/>
-    <col customWidth="1" max="11" min="11" style="93" width="7.5546875"/>
-    <col customWidth="1" max="12" min="12" style="93" width="10.33203125"/>
-    <col customWidth="1" max="13" min="13" style="93" width="16.21875"/>
-    <col customWidth="1" max="258" min="14" style="93" width="8.77734375"/>
-    <col customWidth="1" max="259" min="259" style="93" width="5.44140625"/>
-    <col customWidth="1" max="260" min="260" style="93" width="15.6640625"/>
-    <col customWidth="1" max="261" min="261" style="93" width="18.44140625"/>
-    <col customWidth="1" max="263" min="262" style="93" width="13.109375"/>
-    <col customWidth="1" max="264" min="264" style="93" width="14.109375"/>
-    <col customWidth="1" max="265" min="265" style="93" width="12.109375"/>
-    <col customWidth="1" max="266" min="266" style="93" width="9.44140625"/>
-    <col customWidth="1" max="267" min="267" style="93" width="15.33203125"/>
-    <col customWidth="1" max="268" min="268" style="93" width="10.33203125"/>
-    <col customWidth="1" max="269" min="269" style="93" width="15.44140625"/>
-    <col customWidth="1" max="514" min="270" style="93" width="8.77734375"/>
-    <col customWidth="1" max="515" min="515" style="93" width="5.44140625"/>
-    <col customWidth="1" max="516" min="516" style="93" width="15.6640625"/>
-    <col customWidth="1" max="517" min="517" style="93" width="18.44140625"/>
-    <col customWidth="1" max="519" min="518" style="93" width="13.109375"/>
-    <col customWidth="1" max="520" min="520" style="93" width="14.109375"/>
-    <col customWidth="1" max="521" min="521" style="93" width="12.109375"/>
-    <col customWidth="1" max="522" min="522" style="93" width="9.44140625"/>
-    <col customWidth="1" max="523" min="523" style="93" width="15.33203125"/>
-    <col customWidth="1" max="524" min="524" style="93" width="10.33203125"/>
-    <col customWidth="1" max="525" min="525" style="93" width="15.44140625"/>
-    <col customWidth="1" max="770" min="526" style="93" width="8.77734375"/>
-    <col customWidth="1" max="771" min="771" style="93" width="5.44140625"/>
-    <col customWidth="1" max="772" min="772" style="93" width="15.6640625"/>
-    <col customWidth="1" max="773" min="773" style="93" width="18.44140625"/>
-    <col customWidth="1" max="775" min="774" style="93" width="13.109375"/>
-    <col customWidth="1" max="776" min="776" style="93" width="14.109375"/>
-    <col customWidth="1" max="777" min="777" style="93" width="12.109375"/>
-    <col customWidth="1" max="778" min="778" style="93" width="9.44140625"/>
-    <col customWidth="1" max="779" min="779" style="93" width="15.33203125"/>
-    <col customWidth="1" max="780" min="780" style="93" width="10.33203125"/>
-    <col customWidth="1" max="781" min="781" style="93" width="15.44140625"/>
-    <col customWidth="1" max="1026" min="782" style="93" width="8.77734375"/>
-    <col customWidth="1" max="1027" min="1027" style="93" width="5.44140625"/>
-    <col customWidth="1" max="1028" min="1028" style="93" width="15.6640625"/>
-    <col customWidth="1" max="1029" min="1029" style="93" width="18.44140625"/>
-    <col customWidth="1" max="1031" min="1030" style="93" width="13.109375"/>
-    <col customWidth="1" max="1032" min="1032" style="93" width="14.109375"/>
-    <col customWidth="1" max="1033" min="1033" style="93" width="12.109375"/>
-    <col customWidth="1" max="1034" min="1034" style="93" width="9.44140625"/>
-    <col customWidth="1" max="1035" min="1035" style="93" width="15.33203125"/>
-    <col customWidth="1" max="1036" min="1036" style="93" width="10.33203125"/>
-    <col customWidth="1" max="1037" min="1037" style="93" width="15.44140625"/>
-    <col customWidth="1" max="1282" min="1038" style="93" width="8.77734375"/>
-    <col customWidth="1" max="1283" min="1283" style="93" width="5.44140625"/>
-    <col customWidth="1" max="1284" min="1284" style="93" width="15.6640625"/>
-    <col customWidth="1" max="1285" min="1285" style="93" width="18.44140625"/>
-    <col customWidth="1" max="1287" min="1286" style="93" width="13.109375"/>
-    <col customWidth="1" max="1288" min="1288" style="93" width="14.109375"/>
-    <col customWidth="1" max="1289" min="1289" style="93" width="12.109375"/>
-    <col customWidth="1" max="1290" min="1290" style="93" width="9.44140625"/>
-    <col customWidth="1" max="1291" min="1291" style="93" width="15.33203125"/>
-    <col customWidth="1" max="1292" min="1292" style="93" width="10.33203125"/>
-    <col customWidth="1" max="1293" min="1293" style="93" width="15.44140625"/>
-    <col customWidth="1" max="1538" min="1294" style="93" width="8.77734375"/>
-    <col customWidth="1" max="1539" min="1539" style="93" width="5.44140625"/>
-    <col customWidth="1" max="1540" min="1540" style="93" width="15.6640625"/>
-    <col customWidth="1" max="1541" min="1541" style="93" width="18.44140625"/>
-    <col customWidth="1" max="1543" min="1542" style="93" width="13.109375"/>
-    <col customWidth="1" max="1544" min="1544" style="93" width="14.109375"/>
-    <col customWidth="1" max="1545" min="1545" style="93" width="12.109375"/>
-    <col customWidth="1" max="1546" min="1546" style="93" width="9.44140625"/>
-    <col customWidth="1" max="1547" min="1547" style="93" width="15.33203125"/>
-    <col customWidth="1" max="1548" min="1548" style="93" width="10.33203125"/>
-    <col customWidth="1" max="1549" min="1549" style="93" width="15.44140625"/>
-    <col customWidth="1" max="1794" min="1550" style="93" width="8.77734375"/>
-    <col customWidth="1" max="1795" min="1795" style="93" width="5.44140625"/>
-    <col customWidth="1" max="1796" min="1796" style="93" width="15.6640625"/>
-    <col customWidth="1" max="1797" min="1797" style="93" width="18.44140625"/>
-    <col customWidth="1" max="1799" min="1798" style="93" width="13.109375"/>
-    <col customWidth="1" max="1800" min="1800" style="93" width="14.109375"/>
-    <col customWidth="1" max="1801" min="1801" style="93" width="12.109375"/>
-    <col customWidth="1" max="1802" min="1802" style="93" width="9.44140625"/>
-    <col customWidth="1" max="1803" min="1803" style="93" width="15.33203125"/>
-    <col customWidth="1" max="1804" min="1804" style="93" width="10.33203125"/>
-    <col customWidth="1" max="1805" min="1805" style="93" width="15.44140625"/>
-    <col customWidth="1" max="2050" min="1806" style="93" width="8.77734375"/>
-    <col customWidth="1" max="2051" min="2051" style="93" width="5.44140625"/>
-    <col customWidth="1" max="2052" min="2052" style="93" width="15.6640625"/>
-    <col customWidth="1" max="2053" min="2053" style="93" width="18.44140625"/>
-    <col customWidth="1" max="2055" min="2054" style="93" width="13.109375"/>
-    <col customWidth="1" max="2056" min="2056" style="93" width="14.109375"/>
-    <col customWidth="1" max="2057" min="2057" style="93" width="12.109375"/>
-    <col customWidth="1" max="2058" min="2058" style="93" width="9.44140625"/>
-    <col customWidth="1" max="2059" min="2059" style="93" width="15.33203125"/>
-    <col customWidth="1" max="2060" min="2060" style="93" width="10.33203125"/>
-    <col customWidth="1" max="2061" min="2061" style="93" width="15.44140625"/>
-    <col customWidth="1" max="2306" min="2062" style="93" width="8.77734375"/>
-    <col customWidth="1" max="2307" min="2307" style="93" width="5.44140625"/>
-    <col customWidth="1" max="2308" min="2308" style="93" width="15.6640625"/>
-    <col customWidth="1" max="2309" min="2309" style="93" width="18.44140625"/>
-    <col customWidth="1" max="2311" min="2310" style="93" width="13.109375"/>
-    <col customWidth="1" max="2312" min="2312" style="93" width="14.109375"/>
-    <col customWidth="1" max="2313" min="2313" style="93" width="12.109375"/>
-    <col customWidth="1" max="2314" min="2314" style="93" width="9.44140625"/>
-    <col customWidth="1" max="2315" min="2315" style="93" width="15.33203125"/>
-    <col customWidth="1" max="2316" min="2316" style="93" width="10.33203125"/>
-    <col customWidth="1" max="2317" min="2317" style="93" width="15.44140625"/>
-    <col customWidth="1" max="2562" min="2318" style="93" width="8.77734375"/>
-    <col customWidth="1" max="2563" min="2563" style="93" width="5.44140625"/>
-    <col customWidth="1" max="2564" min="2564" style="93" width="15.6640625"/>
-    <col customWidth="1" max="2565" min="2565" style="93" width="18.44140625"/>
-    <col customWidth="1" max="2567" min="2566" style="93" width="13.109375"/>
-    <col customWidth="1" max="2568" min="2568" style="93" width="14.109375"/>
-    <col customWidth="1" max="2569" min="2569" style="93" width="12.109375"/>
-    <col customWidth="1" max="2570" min="2570" style="93" width="9.44140625"/>
-    <col customWidth="1" max="2571" min="2571" style="93" width="15.33203125"/>
-    <col customWidth="1" max="2572" min="2572" style="93" width="10.33203125"/>
-    <col customWidth="1" max="2573" min="2573" style="93" width="15.44140625"/>
-    <col customWidth="1" max="2818" min="2574" style="93" width="8.77734375"/>
-    <col customWidth="1" max="2819" min="2819" style="93" width="5.44140625"/>
-    <col customWidth="1" max="2820" min="2820" style="93" width="15.6640625"/>
-    <col customWidth="1" max="2821" min="2821" style="93" width="18.44140625"/>
-    <col customWidth="1" max="2823" min="2822" style="93" width="13.109375"/>
-    <col customWidth="1" max="2824" min="2824" style="93" width="14.109375"/>
-    <col customWidth="1" max="2825" min="2825" style="93" width="12.109375"/>
-    <col customWidth="1" max="2826" min="2826" style="93" width="9.44140625"/>
-    <col customWidth="1" max="2827" min="2827" style="93" width="15.33203125"/>
-    <col customWidth="1" max="2828" min="2828" style="93" width="10.33203125"/>
-    <col customWidth="1" max="2829" min="2829" style="93" width="15.44140625"/>
-    <col customWidth="1" max="3074" min="2830" style="93" width="8.77734375"/>
-    <col customWidth="1" max="3075" min="3075" style="93" width="5.44140625"/>
-    <col customWidth="1" max="3076" min="3076" style="93" width="15.6640625"/>
-    <col customWidth="1" max="3077" min="3077" style="93" width="18.44140625"/>
-    <col customWidth="1" max="3079" min="3078" style="93" width="13.109375"/>
-    <col customWidth="1" max="3080" min="3080" style="93" width="14.109375"/>
-    <col customWidth="1" max="3081" min="3081" style="93" width="12.109375"/>
-    <col customWidth="1" max="3082" min="3082" style="93" width="9.44140625"/>
-    <col customWidth="1" max="3083" min="3083" style="93" width="15.33203125"/>
-    <col customWidth="1" max="3084" min="3084" style="93" width="10.33203125"/>
-    <col customWidth="1" max="3085" min="3085" style="93" width="15.44140625"/>
-    <col customWidth="1" max="3330" min="3086" style="93" width="8.77734375"/>
-    <col customWidth="1" max="3331" min="3331" style="93" width="5.44140625"/>
-    <col customWidth="1" max="3332" min="3332" style="93" width="15.6640625"/>
-    <col customWidth="1" max="3333" min="3333" style="93" width="18.44140625"/>
-    <col customWidth="1" max="3335" min="3334" style="93" width="13.109375"/>
-    <col customWidth="1" max="3336" min="3336" style="93" width="14.109375"/>
-    <col customWidth="1" max="3337" min="3337" style="93" width="12.109375"/>
-    <col customWidth="1" max="3338" min="3338" style="93" width="9.44140625"/>
-    <col customWidth="1" max="3339" min="3339" style="93" width="15.33203125"/>
-    <col customWidth="1" max="3340" min="3340" style="93" width="10.33203125"/>
-    <col customWidth="1" max="3341" min="3341" style="93" width="15.44140625"/>
-    <col customWidth="1" max="3586" min="3342" style="93" width="8.77734375"/>
-    <col customWidth="1" max="3587" min="3587" style="93" width="5.44140625"/>
-    <col customWidth="1" max="3588" min="3588" style="93" width="15.6640625"/>
-    <col customWidth="1" max="3589" min="3589" style="93" width="18.44140625"/>
-    <col customWidth="1" max="3591" min="3590" style="93" width="13.109375"/>
-    <col customWidth="1" max="3592" min="3592" style="93" width="14.109375"/>
-    <col customWidth="1" max="3593" min="3593" style="93" width="12.109375"/>
-    <col customWidth="1" max="3594" min="3594" style="93" width="9.44140625"/>
-    <col customWidth="1" max="3595" min="3595" style="93" width="15.33203125"/>
-    <col customWidth="1" max="3596" min="3596" style="93" width="10.33203125"/>
-    <col customWidth="1" max="3597" min="3597" style="93" width="15.44140625"/>
-    <col customWidth="1" max="3842" min="3598" style="93" width="8.77734375"/>
-    <col customWidth="1" max="3843" min="3843" style="93" width="5.44140625"/>
-    <col customWidth="1" max="3844" min="3844" style="93" width="15.6640625"/>
-    <col customWidth="1" max="3845" min="3845" style="93" width="18.44140625"/>
-    <col customWidth="1" max="3847" min="3846" style="93" width="13.109375"/>
-    <col customWidth="1" max="3848" min="3848" style="93" width="14.109375"/>
-    <col customWidth="1" max="3849" min="3849" style="93" width="12.109375"/>
-    <col customWidth="1" max="3850" min="3850" style="93" width="9.44140625"/>
-    <col customWidth="1" max="3851" min="3851" style="93" width="15.33203125"/>
-    <col customWidth="1" max="3852" min="3852" style="93" width="10.33203125"/>
-    <col customWidth="1" max="3853" min="3853" style="93" width="15.44140625"/>
-    <col customWidth="1" max="4098" min="3854" style="93" width="8.77734375"/>
-    <col customWidth="1" max="4099" min="4099" style="93" width="5.44140625"/>
-    <col customWidth="1" max="4100" min="4100" style="93" width="15.6640625"/>
-    <col customWidth="1" max="4101" min="4101" style="93" width="18.44140625"/>
-    <col customWidth="1" max="4103" min="4102" style="93" width="13.109375"/>
-    <col customWidth="1" max="4104" min="4104" style="93" width="14.109375"/>
-    <col customWidth="1" max="4105" min="4105" style="93" width="12.109375"/>
-    <col customWidth="1" max="4106" min="4106" style="93" width="9.44140625"/>
-    <col customWidth="1" max="4107" min="4107" style="93" width="15.33203125"/>
-    <col customWidth="1" max="4108" min="4108" style="93" width="10.33203125"/>
-    <col customWidth="1" max="4109" min="4109" style="93" width="15.44140625"/>
-    <col customWidth="1" max="4354" min="4110" style="93" width="8.77734375"/>
-    <col customWidth="1" max="4355" min="4355" style="93" width="5.44140625"/>
-    <col customWidth="1" max="4356" min="4356" style="93" width="15.6640625"/>
-    <col customWidth="1" max="4357" min="4357" style="93" width="18.44140625"/>
-    <col customWidth="1" max="4359" min="4358" style="93" width="13.109375"/>
-    <col customWidth="1" max="4360" min="4360" style="93" width="14.109375"/>
-    <col customWidth="1" max="4361" min="4361" style="93" width="12.109375"/>
-    <col customWidth="1" max="4362" min="4362" style="93" width="9.44140625"/>
-    <col customWidth="1" max="4363" min="4363" style="93" width="15.33203125"/>
-    <col customWidth="1" max="4364" min="4364" style="93" width="10.33203125"/>
-    <col customWidth="1" max="4365" min="4365" style="93" width="15.44140625"/>
-    <col customWidth="1" max="4610" min="4366" style="93" width="8.77734375"/>
-    <col customWidth="1" max="4611" min="4611" style="93" width="5.44140625"/>
-    <col customWidth="1" max="4612" min="4612" style="93" width="15.6640625"/>
-    <col customWidth="1" max="4613" min="4613" style="93" width="18.44140625"/>
-    <col customWidth="1" max="4615" min="4614" style="93" width="13.109375"/>
-    <col customWidth="1" max="4616" min="4616" style="93" width="14.109375"/>
-    <col customWidth="1" max="4617" min="4617" style="93" width="12.109375"/>
-    <col customWidth="1" max="4618" min="4618" style="93" width="9.44140625"/>
-    <col customWidth="1" max="4619" min="4619" style="93" width="15.33203125"/>
-    <col customWidth="1" max="4620" min="4620" style="93" width="10.33203125"/>
-    <col customWidth="1" max="4621" min="4621" style="93" width="15.44140625"/>
-    <col customWidth="1" max="4866" min="4622" style="93" width="8.77734375"/>
-    <col customWidth="1" max="4867" min="4867" style="93" width="5.44140625"/>
-    <col customWidth="1" max="4868" min="4868" style="93" width="15.6640625"/>
-    <col customWidth="1" max="4869" min="4869" style="93" width="18.44140625"/>
-    <col customWidth="1" max="4871" min="4870" style="93" width="13.109375"/>
-    <col customWidth="1" max="4872" min="4872" style="93" width="14.109375"/>
-    <col customWidth="1" max="4873" min="4873" style="93" width="12.109375"/>
-    <col customWidth="1" max="4874" min="4874" style="93" width="9.44140625"/>
-    <col customWidth="1" max="4875" min="4875" style="93" width="15.33203125"/>
-    <col customWidth="1" max="4876" min="4876" style="93" width="10.33203125"/>
-    <col customWidth="1" max="4877" min="4877" style="93" width="15.44140625"/>
-    <col customWidth="1" max="5122" min="4878" style="93" width="8.77734375"/>
-    <col customWidth="1" max="5123" min="5123" style="93" width="5.44140625"/>
-    <col customWidth="1" max="5124" min="5124" style="93" width="15.6640625"/>
-    <col customWidth="1" max="5125" min="5125" style="93" width="18.44140625"/>
-    <col customWidth="1" max="5127" min="5126" style="93" width="13.109375"/>
-    <col customWidth="1" max="5128" min="5128" style="93" width="14.109375"/>
-    <col customWidth="1" max="5129" min="5129" style="93" width="12.109375"/>
-    <col customWidth="1" max="5130" min="5130" style="93" width="9.44140625"/>
-    <col customWidth="1" max="5131" min="5131" style="93" width="15.33203125"/>
-    <col customWidth="1" max="5132" min="5132" style="93" width="10.33203125"/>
-    <col customWidth="1" max="5133" min="5133" style="93" width="15.44140625"/>
-    <col customWidth="1" max="5378" min="5134" style="93" width="8.77734375"/>
-    <col customWidth="1" max="5379" min="5379" style="93" width="5.44140625"/>
-    <col customWidth="1" max="5380" min="5380" style="93" width="15.6640625"/>
-    <col customWidth="1" max="5381" min="5381" style="93" width="18.44140625"/>
-    <col customWidth="1" max="5383" min="5382" style="93" width="13.109375"/>
-    <col customWidth="1" max="5384" min="5384" style="93" width="14.109375"/>
-    <col customWidth="1" max="5385" min="5385" style="93" width="12.109375"/>
-    <col customWidth="1" max="5386" min="5386" style="93" width="9.44140625"/>
-    <col customWidth="1" max="5387" min="5387" style="93" width="15.33203125"/>
-    <col customWidth="1" max="5388" min="5388" style="93" width="10.33203125"/>
-    <col customWidth="1" max="5389" min="5389" style="93" width="15.44140625"/>
-    <col customWidth="1" max="5634" min="5390" style="93" width="8.77734375"/>
-    <col customWidth="1" max="5635" min="5635" style="93" width="5.44140625"/>
-    <col customWidth="1" max="5636" min="5636" style="93" width="15.6640625"/>
-    <col customWidth="1" max="5637" min="5637" style="93" width="18.44140625"/>
-    <col customWidth="1" max="5639" min="5638" style="93" width="13.109375"/>
-    <col customWidth="1" max="5640" min="5640" style="93" width="14.109375"/>
-    <col customWidth="1" max="5641" min="5641" style="93" width="12.109375"/>
-    <col customWidth="1" max="5642" min="5642" style="93" width="9.44140625"/>
-    <col customWidth="1" max="5643" min="5643" style="93" width="15.33203125"/>
-    <col customWidth="1" max="5644" min="5644" style="93" width="10.33203125"/>
-    <col customWidth="1" max="5645" min="5645" style="93" width="15.44140625"/>
-    <col customWidth="1" max="5890" min="5646" style="93" width="8.77734375"/>
-    <col customWidth="1" max="5891" min="5891" style="93" width="5.44140625"/>
-    <col customWidth="1" max="5892" min="5892" style="93" width="15.6640625"/>
-    <col customWidth="1" max="5893" min="5893" style="93" width="18.44140625"/>
-    <col customWidth="1" max="5895" min="5894" style="93" width="13.109375"/>
-    <col customWidth="1" max="5896" min="5896" style="93" width="14.109375"/>
-    <col customWidth="1" max="5897" min="5897" style="93" width="12.109375"/>
-    <col customWidth="1" max="5898" min="5898" style="93" width="9.44140625"/>
-    <col customWidth="1" max="5899" min="5899" style="93" width="15.33203125"/>
-    <col customWidth="1" max="5900" min="5900" style="93" width="10.33203125"/>
-    <col customWidth="1" max="5901" min="5901" style="93" width="15.44140625"/>
-    <col customWidth="1" max="6146" min="5902" style="93" width="8.77734375"/>
-    <col customWidth="1" max="6147" min="6147" style="93" width="5.44140625"/>
-    <col customWidth="1" max="6148" min="6148" style="93" width="15.6640625"/>
-    <col customWidth="1" max="6149" min="6149" style="93" width="18.44140625"/>
-    <col customWidth="1" max="6151" min="6150" style="93" width="13.109375"/>
-    <col customWidth="1" max="6152" min="6152" style="93" width="14.109375"/>
-    <col customWidth="1" max="6153" min="6153" style="93" width="12.109375"/>
-    <col customWidth="1" max="6154" min="6154" style="93" width="9.44140625"/>
-    <col customWidth="1" max="6155" min="6155" style="93" width="15.33203125"/>
-    <col customWidth="1" max="6156" min="6156" style="93" width="10.33203125"/>
-    <col customWidth="1" max="6157" min="6157" style="93" width="15.44140625"/>
-    <col customWidth="1" max="6402" min="6158" style="93" width="8.77734375"/>
-    <col customWidth="1" max="6403" min="6403" style="93" width="5.44140625"/>
-    <col customWidth="1" max="6404" min="6404" style="93" width="15.6640625"/>
-    <col customWidth="1" max="6405" min="6405" style="93" width="18.44140625"/>
-    <col customWidth="1" max="6407" min="6406" style="93" width="13.109375"/>
-    <col customWidth="1" max="6408" min="6408" style="93" width="14.109375"/>
-    <col customWidth="1" max="6409" min="6409" style="93" width="12.109375"/>
-    <col customWidth="1" max="6410" min="6410" style="93" width="9.44140625"/>
-    <col customWidth="1" max="6411" min="6411" style="93" width="15.33203125"/>
-    <col customWidth="1" max="6412" min="6412" style="93" width="10.33203125"/>
-    <col customWidth="1" max="6413" min="6413" style="93" width="15.44140625"/>
-    <col customWidth="1" max="6658" min="6414" style="93" width="8.77734375"/>
-    <col customWidth="1" max="6659" min="6659" style="93" width="5.44140625"/>
-    <col customWidth="1" max="6660" min="6660" style="93" width="15.6640625"/>
-    <col customWidth="1" max="6661" min="6661" style="93" width="18.44140625"/>
-    <col customWidth="1" max="6663" min="6662" style="93" width="13.109375"/>
-    <col customWidth="1" max="6664" min="6664" style="93" width="14.109375"/>
-    <col customWidth="1" max="6665" min="6665" style="93" width="12.109375"/>
-    <col customWidth="1" max="6666" min="6666" style="93" width="9.44140625"/>
-    <col customWidth="1" max="6667" min="6667" style="93" width="15.33203125"/>
-    <col customWidth="1" max="6668" min="6668" style="93" width="10.33203125"/>
-    <col customWidth="1" max="6669" min="6669" style="93" width="15.44140625"/>
-    <col customWidth="1" max="6914" min="6670" style="93" width="8.77734375"/>
-    <col customWidth="1" max="6915" min="6915" style="93" width="5.44140625"/>
-    <col customWidth="1" max="6916" min="6916" style="93" width="15.6640625"/>
-    <col customWidth="1" max="6917" min="6917" style="93" width="18.44140625"/>
-    <col customWidth="1" max="6919" min="6918" style="93" width="13.109375"/>
-    <col customWidth="1" max="6920" min="6920" style="93" width="14.109375"/>
-    <col customWidth="1" max="6921" min="6921" style="93" width="12.109375"/>
-    <col customWidth="1" max="6922" min="6922" style="93" width="9.44140625"/>
-    <col customWidth="1" max="6923" min="6923" style="93" width="15.33203125"/>
-    <col customWidth="1" max="6924" min="6924" style="93" width="10.33203125"/>
-    <col customWidth="1" max="6925" min="6925" style="93" width="15.44140625"/>
-    <col customWidth="1" max="7170" min="6926" style="93" width="8.77734375"/>
-    <col customWidth="1" max="7171" min="7171" style="93" width="5.44140625"/>
-    <col customWidth="1" max="7172" min="7172" style="93" width="15.6640625"/>
-    <col customWidth="1" max="7173" min="7173" style="93" width="18.44140625"/>
-    <col customWidth="1" max="7175" min="7174" style="93" width="13.109375"/>
-    <col customWidth="1" max="7176" min="7176" style="93" width="14.109375"/>
-    <col customWidth="1" max="7177" min="7177" style="93" width="12.109375"/>
-    <col customWidth="1" max="7178" min="7178" style="93" width="9.44140625"/>
-    <col customWidth="1" max="7179" min="7179" style="93" width="15.33203125"/>
-    <col customWidth="1" max="7180" min="7180" style="93" width="10.33203125"/>
-    <col customWidth="1" max="7181" min="7181" style="93" width="15.44140625"/>
-    <col customWidth="1" max="7426" min="7182" style="93" width="8.77734375"/>
-    <col customWidth="1" max="7427" min="7427" style="93" width="5.44140625"/>
-    <col customWidth="1" max="7428" min="7428" style="93" width="15.6640625"/>
-    <col customWidth="1" max="7429" min="7429" style="93" width="18.44140625"/>
-    <col customWidth="1" max="7431" min="7430" style="93" width="13.109375"/>
-    <col customWidth="1" max="7432" min="7432" style="93" width="14.109375"/>
-    <col customWidth="1" max="7433" min="7433" style="93" width="12.109375"/>
-    <col customWidth="1" max="7434" min="7434" style="93" width="9.44140625"/>
-    <col customWidth="1" max="7435" min="7435" style="93" width="15.33203125"/>
-    <col customWidth="1" max="7436" min="7436" style="93" width="10.33203125"/>
-    <col customWidth="1" max="7437" min="7437" style="93" width="15.44140625"/>
-    <col customWidth="1" max="7682" min="7438" style="93" width="8.77734375"/>
-    <col customWidth="1" max="7683" min="7683" style="93" width="5.44140625"/>
-    <col customWidth="1" max="7684" min="7684" style="93" width="15.6640625"/>
-    <col customWidth="1" max="7685" min="7685" style="93" width="18.44140625"/>
-    <col customWidth="1" max="7687" min="7686" style="93" width="13.109375"/>
-    <col customWidth="1" max="7688" min="7688" style="93" width="14.109375"/>
-    <col customWidth="1" max="7689" min="7689" style="93" width="12.109375"/>
-    <col customWidth="1" max="7690" min="7690" style="93" width="9.44140625"/>
-    <col customWidth="1" max="7691" min="7691" style="93" width="15.33203125"/>
-    <col customWidth="1" max="7692" min="7692" style="93" width="10.33203125"/>
-    <col customWidth="1" max="7693" min="7693" style="93" width="15.44140625"/>
-    <col customWidth="1" max="7938" min="7694" style="93" width="8.77734375"/>
-    <col customWidth="1" max="7939" min="7939" style="93" width="5.44140625"/>
-    <col customWidth="1" max="7940" min="7940" style="93" width="15.6640625"/>
-    <col customWidth="1" max="7941" min="7941" style="93" width="18.44140625"/>
-    <col customWidth="1" max="7943" min="7942" style="93" width="13.109375"/>
-    <col customWidth="1" max="7944" min="7944" style="93" width="14.109375"/>
-    <col customWidth="1" max="7945" min="7945" style="93" width="12.109375"/>
-    <col customWidth="1" max="7946" min="7946" style="93" width="9.44140625"/>
-    <col customWidth="1" max="7947" min="7947" style="93" width="15.33203125"/>
-    <col customWidth="1" max="7948" min="7948" style="93" width="10.33203125"/>
-    <col customWidth="1" max="7949" min="7949" style="93" width="15.44140625"/>
-    <col customWidth="1" max="8194" min="7950" style="93" width="8.77734375"/>
-    <col customWidth="1" max="8195" min="8195" style="93" width="5.44140625"/>
-    <col customWidth="1" max="8196" min="8196" style="93" width="15.6640625"/>
-    <col customWidth="1" max="8197" min="8197" style="93" width="18.44140625"/>
-    <col customWidth="1" max="8199" min="8198" style="93" width="13.109375"/>
-    <col customWidth="1" max="8200" min="8200" style="93" width="14.109375"/>
-    <col customWidth="1" max="8201" min="8201" style="93" width="12.109375"/>
-    <col customWidth="1" max="8202" min="8202" style="93" width="9.44140625"/>
-    <col customWidth="1" max="8203" min="8203" style="93" width="15.33203125"/>
-    <col customWidth="1" max="8204" min="8204" style="93" width="10.33203125"/>
-    <col customWidth="1" max="8205" min="8205" style="93" width="15.44140625"/>
-    <col customWidth="1" max="8450" min="8206" style="93" width="8.77734375"/>
-    <col customWidth="1" max="8451" min="8451" style="93" width="5.44140625"/>
-    <col customWidth="1" max="8452" min="8452" style="93" width="15.6640625"/>
-    <col customWidth="1" max="8453" min="8453" style="93" width="18.44140625"/>
-    <col customWidth="1" max="8455" min="8454" style="93" width="13.109375"/>
-    <col customWidth="1" max="8456" min="8456" style="93" width="14.109375"/>
-    <col customWidth="1" max="8457" min="8457" style="93" width="12.109375"/>
-    <col customWidth="1" max="8458" min="8458" style="93" width="9.44140625"/>
-    <col customWidth="1" max="8459" min="8459" style="93" width="15.33203125"/>
-    <col customWidth="1" max="8460" min="8460" style="93" width="10.33203125"/>
-    <col customWidth="1" max="8461" min="8461" style="93" width="15.44140625"/>
-    <col customWidth="1" max="8706" min="8462" style="93" width="8.77734375"/>
-    <col customWidth="1" max="8707" min="8707" style="93" width="5.44140625"/>
-    <col customWidth="1" max="8708" min="8708" style="93" width="15.6640625"/>
-    <col customWidth="1" max="8709" min="8709" style="93" width="18.44140625"/>
-    <col customWidth="1" max="8711" min="8710" style="93" width="13.109375"/>
-    <col customWidth="1" max="8712" min="8712" style="93" width="14.109375"/>
-    <col customWidth="1" max="8713" min="8713" style="93" width="12.109375"/>
-    <col customWidth="1" max="8714" min="8714" style="93" width="9.44140625"/>
-    <col customWidth="1" max="8715" min="8715" style="93" width="15.33203125"/>
-    <col customWidth="1" max="8716" min="8716" style="93" width="10.33203125"/>
-    <col customWidth="1" max="8717" min="8717" style="93" width="15.44140625"/>
-    <col customWidth="1" max="8962" min="8718" style="93" width="8.77734375"/>
-    <col customWidth="1" max="8963" min="8963" style="93" width="5.44140625"/>
-    <col customWidth="1" max="8964" min="8964" style="93" width="15.6640625"/>
-    <col customWidth="1" max="8965" min="8965" style="93" width="18.44140625"/>
-    <col customWidth="1" max="8967" min="8966" style="93" width="13.109375"/>
-    <col customWidth="1" max="8968" min="8968" style="93" width="14.109375"/>
-    <col customWidth="1" max="8969" min="8969" style="93" width="12.109375"/>
-    <col customWidth="1" max="8970" min="8970" style="93" width="9.44140625"/>
-    <col customWidth="1" max="8971" min="8971" style="93" width="15.33203125"/>
-    <col customWidth="1" max="8972" min="8972" style="93" width="10.33203125"/>
-    <col customWidth="1" max="8973" min="8973" style="93" width="15.44140625"/>
-    <col customWidth="1" max="9218" min="8974" style="93" width="8.77734375"/>
-    <col customWidth="1" max="9219" min="9219" style="93" width="5.44140625"/>
-    <col customWidth="1" max="9220" min="9220" style="93" width="15.6640625"/>
-    <col customWidth="1" max="9221" min="9221" style="93" width="18.44140625"/>
-    <col customWidth="1" max="9223" min="9222" style="93" width="13.109375"/>
-    <col customWidth="1" max="9224" min="9224" style="93" width="14.109375"/>
-    <col customWidth="1" max="9225" min="9225" style="93" width="12.109375"/>
-    <col customWidth="1" max="9226" min="9226" style="93" width="9.44140625"/>
-    <col customWidth="1" max="9227" min="9227" style="93" width="15.33203125"/>
-    <col customWidth="1" max="9228" min="9228" style="93" width="10.33203125"/>
-    <col customWidth="1" max="9229" min="9229" style="93" width="15.44140625"/>
-    <col customWidth="1" max="9474" min="9230" style="93" width="8.77734375"/>
-    <col customWidth="1" max="9475" min="9475" style="93" width="5.44140625"/>
-    <col customWidth="1" max="9476" min="9476" style="93" width="15.6640625"/>
-    <col customWidth="1" max="9477" min="9477" style="93" width="18.44140625"/>
-    <col customWidth="1" max="9479" min="9478" style="93" width="13.109375"/>
-    <col customWidth="1" max="9480" min="9480" style="93" width="14.109375"/>
-    <col customWidth="1" max="9481" min="9481" style="93" width="12.109375"/>
-    <col customWidth="1" max="9482" min="9482" style="93" width="9.44140625"/>
-    <col customWidth="1" max="9483" min="9483" style="93" width="15.33203125"/>
-    <col customWidth="1" max="9484" min="9484" style="93" width="10.33203125"/>
-    <col customWidth="1" max="9485" min="9485" style="93" width="15.44140625"/>
-    <col customWidth="1" max="9730" min="9486" style="93" width="8.77734375"/>
-    <col customWidth="1" max="9731" min="9731" style="93" width="5.44140625"/>
-    <col customWidth="1" max="9732" min="9732" style="93" width="15.6640625"/>
-    <col customWidth="1" max="9733" min="9733" style="93" width="18.44140625"/>
-    <col customWidth="1" max="9735" min="9734" style="93" width="13.109375"/>
-    <col customWidth="1" max="9736" min="9736" style="93" width="14.109375"/>
-    <col customWidth="1" max="9737" min="9737" style="93" width="12.109375"/>
-    <col customWidth="1" max="9738" min="9738" style="93" width="9.44140625"/>
-    <col customWidth="1" max="9739" min="9739" style="93" width="15.33203125"/>
-    <col customWidth="1" max="9740" min="9740" style="93" width="10.33203125"/>
-    <col customWidth="1" max="9741" min="9741" style="93" width="15.44140625"/>
-    <col customWidth="1" max="9986" min="9742" style="93" width="8.77734375"/>
-    <col customWidth="1" max="9987" min="9987" style="93" width="5.44140625"/>
-    <col customWidth="1" max="9988" min="9988" style="93" width="15.6640625"/>
-    <col customWidth="1" max="9989" min="9989" style="93" width="18.44140625"/>
-    <col customWidth="1" max="9991" min="9990" style="93" width="13.109375"/>
-    <col customWidth="1" max="9992" min="9992" style="93" width="14.109375"/>
-    <col customWidth="1" max="9993" min="9993" style="93" width="12.109375"/>
-    <col customWidth="1" max="9994" min="9994" style="93" width="9.44140625"/>
-    <col customWidth="1" max="9995" min="9995" style="93" width="15.33203125"/>
-    <col customWidth="1" max="9996" min="9996" style="93" width="10.33203125"/>
-    <col customWidth="1" max="9997" min="9997" style="93" width="15.44140625"/>
-    <col customWidth="1" max="10242" min="9998" style="93" width="8.77734375"/>
-    <col customWidth="1" max="10243" min="10243" style="93" width="5.44140625"/>
-    <col customWidth="1" max="10244" min="10244" style="93" width="15.6640625"/>
-    <col customWidth="1" max="10245" min="10245" style="93" width="18.44140625"/>
-    <col customWidth="1" max="10247" min="10246" style="93" width="13.109375"/>
-    <col customWidth="1" max="10248" min="10248" style="93" width="14.109375"/>
-    <col customWidth="1" max="10249" min="10249" style="93" width="12.109375"/>
-    <col customWidth="1" max="10250" min="10250" style="93" width="9.44140625"/>
-    <col customWidth="1" max="10251" min="10251" style="93" width="15.33203125"/>
-    <col customWidth="1" max="10252" min="10252" style="93" width="10.33203125"/>
-    <col customWidth="1" max="10253" min="10253" style="93" width="15.44140625"/>
-    <col customWidth="1" max="10498" min="10254" style="93" width="8.77734375"/>
-    <col customWidth="1" max="10499" min="10499" style="93" width="5.44140625"/>
-    <col customWidth="1" max="10500" min="10500" style="93" width="15.6640625"/>
-    <col customWidth="1" max="10501" min="10501" style="93" width="18.44140625"/>
-    <col customWidth="1" max="10503" min="10502" style="93" width="13.109375"/>
-    <col customWidth="1" max="10504" min="10504" style="93" width="14.109375"/>
-    <col customWidth="1" max="10505" min="10505" style="93" width="12.109375"/>
-    <col customWidth="1" max="10506" min="10506" style="93" width="9.44140625"/>
-    <col customWidth="1" max="10507" min="10507" style="93" width="15.33203125"/>
-    <col customWidth="1" max="10508" min="10508" style="93" width="10.33203125"/>
-    <col customWidth="1" max="10509" min="10509" style="93" width="15.44140625"/>
-    <col customWidth="1" max="10754" min="10510" style="93" width="8.77734375"/>
-    <col customWidth="1" max="10755" min="10755" style="93" width="5.44140625"/>
-    <col customWidth="1" max="10756" min="10756" style="93" width="15.6640625"/>
-    <col customWidth="1" max="10757" min="10757" style="93" width="18.44140625"/>
-    <col customWidth="1" max="10759" min="10758" style="93" width="13.109375"/>
-    <col customWidth="1" max="10760" min="10760" style="93" width="14.109375"/>
-    <col customWidth="1" max="10761" min="10761" style="93" width="12.109375"/>
-    <col customWidth="1" max="10762" min="10762" style="93" width="9.44140625"/>
-    <col customWidth="1" max="10763" min="10763" style="93" width="15.33203125"/>
-    <col customWidth="1" max="10764" min="10764" style="93" width="10.33203125"/>
-    <col customWidth="1" max="10765" min="10765" style="93" width="15.44140625"/>
-    <col customWidth="1" max="11010" min="10766" style="93" width="8.77734375"/>
-    <col customWidth="1" max="11011" min="11011" style="93" width="5.44140625"/>
-    <col customWidth="1" max="11012" min="11012" style="93" width="15.6640625"/>
-    <col customWidth="1" max="11013" min="11013" style="93" width="18.44140625"/>
-    <col customWidth="1" max="11015" min="11014" style="93" width="13.109375"/>
-    <col customWidth="1" max="11016" min="11016" style="93" width="14.109375"/>
-    <col customWidth="1" max="11017" min="11017" style="93" width="12.109375"/>
-    <col customWidth="1" max="11018" min="11018" style="93" width="9.44140625"/>
-    <col customWidth="1" max="11019" min="11019" style="93" width="15.33203125"/>
-    <col customWidth="1" max="11020" min="11020" style="93" width="10.33203125"/>
-    <col customWidth="1" max="11021" min="11021" style="93" width="15.44140625"/>
-    <col customWidth="1" max="11266" min="11022" style="93" width="8.77734375"/>
-    <col customWidth="1" max="11267" min="11267" style="93" width="5.44140625"/>
-    <col customWidth="1" max="11268" min="11268" style="93" width="15.6640625"/>
-    <col customWidth="1" max="11269" min="11269" style="93" width="18.44140625"/>
-    <col customWidth="1" max="11271" min="11270" style="93" width="13.109375"/>
-    <col customWidth="1" max="11272" min="11272" style="93" width="14.109375"/>
-    <col customWidth="1" max="11273" min="11273" style="93" width="12.109375"/>
-    <col customWidth="1" max="11274" min="11274" style="93" width="9.44140625"/>
-    <col customWidth="1" max="11275" min="11275" style="93" width="15.33203125"/>
-    <col customWidth="1" max="11276" min="11276" style="93" width="10.33203125"/>
-    <col customWidth="1" max="11277" min="11277" style="93" width="15.44140625"/>
-    <col customWidth="1" max="11522" min="11278" style="93" width="8.77734375"/>
-    <col customWidth="1" max="11523" min="11523" style="93" width="5.44140625"/>
-    <col customWidth="1" max="11524" min="11524" style="93" width="15.6640625"/>
-    <col customWidth="1" max="11525" min="11525" style="93" width="18.44140625"/>
-    <col customWidth="1" max="11527" min="11526" style="93" width="13.109375"/>
-    <col customWidth="1" max="11528" min="11528" style="93" width="14.109375"/>
-    <col customWidth="1" max="11529" min="11529" style="93" width="12.109375"/>
-    <col customWidth="1" max="11530" min="11530" style="93" width="9.44140625"/>
-    <col customWidth="1" max="11531" min="11531" style="93" width="15.33203125"/>
-    <col customWidth="1" max="11532" min="11532" style="93" width="10.33203125"/>
-    <col customWidth="1" max="11533" min="11533" style="93" width="15.44140625"/>
-    <col customWidth="1" max="11778" min="11534" style="93" width="8.77734375"/>
-    <col customWidth="1" max="11779" min="11779" style="93" width="5.44140625"/>
-    <col customWidth="1" max="11780" min="11780" style="93" width="15.6640625"/>
-    <col customWidth="1" max="11781" min="11781" style="93" width="18.44140625"/>
-    <col customWidth="1" max="11783" min="11782" style="93" width="13.109375"/>
-    <col customWidth="1" max="11784" min="11784" style="93" width="14.109375"/>
-    <col customWidth="1" max="11785" min="11785" style="93" width="12.109375"/>
-    <col customWidth="1" max="11786" min="11786" style="93" width="9.44140625"/>
-    <col customWidth="1" max="11787" min="11787" style="93" width="15.33203125"/>
-    <col customWidth="1" max="11788" min="11788" style="93" width="10.33203125"/>
-    <col customWidth="1" max="11789" min="11789" style="93" width="15.44140625"/>
-    <col customWidth="1" max="12034" min="11790" style="93" width="8.77734375"/>
-    <col customWidth="1" max="12035" min="12035" style="93" width="5.44140625"/>
-    <col customWidth="1" max="12036" min="12036" style="93" width="15.6640625"/>
-    <col customWidth="1" max="12037" min="12037" style="93" width="18.44140625"/>
-    <col customWidth="1" max="12039" min="12038" style="93" width="13.109375"/>
-    <col customWidth="1" max="12040" min="12040" style="93" width="14.109375"/>
-    <col customWidth="1" max="12041" min="12041" style="93" width="12.109375"/>
-    <col customWidth="1" max="12042" min="12042" style="93" width="9.44140625"/>
-    <col customWidth="1" max="12043" min="12043" style="93" width="15.33203125"/>
-    <col customWidth="1" max="12044" min="12044" style="93" width="10.33203125"/>
-    <col customWidth="1" max="12045" min="12045" style="93" width="15.44140625"/>
-    <col customWidth="1" max="12290" min="12046" style="93" width="8.77734375"/>
-    <col customWidth="1" max="12291" min="12291" style="93" width="5.44140625"/>
-    <col customWidth="1" max="12292" min="12292" style="93" width="15.6640625"/>
-    <col customWidth="1" max="12293" min="12293" style="93" width="18.44140625"/>
-    <col customWidth="1" max="12295" min="12294" style="93" width="13.109375"/>
-    <col customWidth="1" max="12296" min="12296" style="93" width="14.109375"/>
-    <col customWidth="1" max="12297" min="12297" style="93" width="12.109375"/>
-    <col customWidth="1" max="12298" min="12298" style="93" width="9.44140625"/>
-    <col customWidth="1" max="12299" min="12299" style="93" width="15.33203125"/>
-    <col customWidth="1" max="12300" min="12300" style="93" width="10.33203125"/>
-    <col customWidth="1" max="12301" min="12301" style="93" width="15.44140625"/>
-    <col customWidth="1" max="12546" min="12302" style="93" width="8.77734375"/>
-    <col customWidth="1" max="12547" min="12547" style="93" width="5.44140625"/>
-    <col customWidth="1" max="12548" min="12548" style="93" width="15.6640625"/>
-    <col customWidth="1" max="12549" min="12549" style="93" width="18.44140625"/>
-    <col customWidth="1" max="12551" min="12550" style="93" width="13.109375"/>
-    <col customWidth="1" max="12552" min="12552" style="93" width="14.109375"/>
-    <col customWidth="1" max="12553" min="12553" style="93" width="12.109375"/>
-    <col customWidth="1" max="12554" min="12554" style="93" width="9.44140625"/>
-    <col customWidth="1" max="12555" min="12555" style="93" width="15.33203125"/>
-    <col customWidth="1" max="12556" min="12556" style="93" width="10.33203125"/>
-    <col customWidth="1" max="12557" min="12557" style="93" width="15.44140625"/>
-    <col customWidth="1" max="12802" min="12558" style="93" width="8.77734375"/>
-    <col customWidth="1" max="12803" min="12803" style="93" width="5.44140625"/>
-    <col customWidth="1" max="12804" min="12804" style="93" width="15.6640625"/>
-    <col customWidth="1" max="12805" min="12805" style="93" width="18.44140625"/>
-    <col customWidth="1" max="12807" min="12806" style="93" width="13.109375"/>
-    <col customWidth="1" max="12808" min="12808" style="93" width="14.109375"/>
-    <col customWidth="1" max="12809" min="12809" style="93" width="12.109375"/>
-    <col customWidth="1" max="12810" min="12810" style="93" width="9.44140625"/>
-    <col customWidth="1" max="12811" min="12811" style="93" width="15.33203125"/>
-    <col customWidth="1" max="12812" min="12812" style="93" width="10.33203125"/>
-    <col customWidth="1" max="12813" min="12813" style="93" width="15.44140625"/>
-    <col customWidth="1" max="13058" min="12814" style="93" width="8.77734375"/>
-    <col customWidth="1" max="13059" min="13059" style="93" width="5.44140625"/>
-    <col customWidth="1" max="13060" min="13060" style="93" width="15.6640625"/>
-    <col customWidth="1" max="13061" min="13061" style="93" width="18.44140625"/>
-    <col customWidth="1" max="13063" min="13062" style="93" width="13.109375"/>
-    <col customWidth="1" max="13064" min="13064" style="93" width="14.109375"/>
-    <col customWidth="1" max="13065" min="13065" style="93" width="12.109375"/>
-    <col customWidth="1" max="13066" min="13066" style="93" width="9.44140625"/>
-    <col customWidth="1" max="13067" min="13067" style="93" width="15.33203125"/>
-    <col customWidth="1" max="13068" min="13068" style="93" width="10.33203125"/>
-    <col customWidth="1" max="13069" min="13069" style="93" width="15.44140625"/>
-    <col customWidth="1" max="13314" min="13070" style="93" width="8.77734375"/>
-    <col customWidth="1" max="13315" min="13315" style="93" width="5.44140625"/>
-    <col customWidth="1" max="13316" min="13316" style="93" width="15.6640625"/>
-    <col customWidth="1" max="13317" min="13317" style="93" width="18.44140625"/>
-    <col customWidth="1" max="13319" min="13318" style="93" width="13.109375"/>
-    <col customWidth="1" max="13320" min="13320" style="93" width="14.109375"/>
-    <col customWidth="1" max="13321" min="13321" style="93" width="12.109375"/>
-    <col customWidth="1" max="13322" min="13322" style="93" width="9.44140625"/>
-    <col customWidth="1" max="13323" min="13323" style="93" width="15.33203125"/>
-    <col customWidth="1" max="13324" min="13324" style="93" width="10.33203125"/>
-    <col customWidth="1" max="13325" min="13325" style="93" width="15.44140625"/>
-    <col customWidth="1" max="13570" min="13326" style="93" width="8.77734375"/>
-    <col customWidth="1" max="13571" min="13571" style="93" width="5.44140625"/>
-    <col customWidth="1" max="13572" min="13572" style="93" width="15.6640625"/>
-    <col customWidth="1" max="13573" min="13573" style="93" width="18.44140625"/>
-    <col customWidth="1" max="13575" min="13574" style="93" width="13.109375"/>
-    <col customWidth="1" max="13576" min="13576" style="93" width="14.109375"/>
-    <col customWidth="1" max="13577" min="13577" style="93" width="12.109375"/>
-    <col customWidth="1" max="13578" min="13578" style="93" width="9.44140625"/>
-    <col customWidth="1" max="13579" min="13579" style="93" width="15.33203125"/>
-    <col customWidth="1" max="13580" min="13580" style="93" width="10.33203125"/>
-    <col customWidth="1" max="13581" min="13581" style="93" width="15.44140625"/>
-    <col customWidth="1" max="13826" min="13582" style="93" width="8.77734375"/>
-    <col customWidth="1" max="13827" min="13827" style="93" width="5.44140625"/>
-    <col customWidth="1" max="13828" min="13828" style="93" width="15.6640625"/>
-    <col customWidth="1" max="13829" min="13829" style="93" width="18.44140625"/>
-    <col customWidth="1" max="13831" min="13830" style="93" width="13.109375"/>
-    <col customWidth="1" max="13832" min="13832" style="93" width="14.109375"/>
-    <col customWidth="1" max="13833" min="13833" style="93" width="12.109375"/>
-    <col customWidth="1" max="13834" min="13834" style="93" width="9.44140625"/>
-    <col customWidth="1" max="13835" min="13835" style="93" width="15.33203125"/>
-    <col customWidth="1" max="13836" min="13836" style="93" width="10.33203125"/>
-    <col customWidth="1" max="13837" min="13837" style="93" width="15.44140625"/>
-    <col customWidth="1" max="14082" min="13838" style="93" width="8.77734375"/>
-    <col customWidth="1" max="14083" min="14083" style="93" width="5.44140625"/>
-    <col customWidth="1" max="14084" min="14084" style="93" width="15.6640625"/>
-    <col customWidth="1" max="14085" min="14085" style="93" width="18.44140625"/>
-    <col customWidth="1" max="14087" min="14086" style="93" width="13.109375"/>
-    <col customWidth="1" max="14088" min="14088" style="93" width="14.109375"/>
-    <col customWidth="1" max="14089" min="14089" style="93" width="12.109375"/>
-    <col customWidth="1" max="14090" min="14090" style="93" width="9.44140625"/>
-    <col customWidth="1" max="14091" min="14091" style="93" width="15.33203125"/>
-    <col customWidth="1" max="14092" min="14092" style="93" width="10.33203125"/>
-    <col customWidth="1" max="14093" min="14093" style="93" width="15.44140625"/>
-    <col customWidth="1" max="14338" min="14094" style="93" width="8.77734375"/>
-    <col customWidth="1" max="14339" min="14339" style="93" width="5.44140625"/>
-    <col customWidth="1" max="14340" min="14340" style="93" width="15.6640625"/>
-    <col customWidth="1" max="14341" min="14341" style="93" width="18.44140625"/>
-    <col customWidth="1" max="14343" min="14342" style="93" width="13.109375"/>
-    <col customWidth="1" max="14344" min="14344" style="93" width="14.109375"/>
-    <col customWidth="1" max="14345" min="14345" style="93" width="12.109375"/>
-    <col customWidth="1" max="14346" min="14346" style="93" width="9.44140625"/>
-    <col customWidth="1" max="14347" min="14347" style="93" width="15.33203125"/>
-    <col customWidth="1" max="14348" min="14348" style="93" width="10.33203125"/>
-    <col customWidth="1" max="14349" min="14349" style="93" width="15.44140625"/>
-    <col customWidth="1" max="14594" min="14350" style="93" width="8.77734375"/>
-    <col customWidth="1" max="14595" min="14595" style="93" width="5.44140625"/>
-    <col customWidth="1" max="14596" min="14596" style="93" width="15.6640625"/>
-    <col customWidth="1" max="14597" min="14597" style="93" width="18.44140625"/>
-    <col customWidth="1" max="14599" min="14598" style="93" width="13.109375"/>
-    <col customWidth="1" max="14600" min="14600" style="93" width="14.109375"/>
-    <col customWidth="1" max="14601" min="14601" style="93" width="12.109375"/>
-    <col customWidth="1" max="14602" min="14602" style="93" width="9.44140625"/>
-    <col customWidth="1" max="14603" min="14603" style="93" width="15.33203125"/>
-    <col customWidth="1" max="14604" min="14604" style="93" width="10.33203125"/>
-    <col customWidth="1" max="14605" min="14605" style="93" width="15.44140625"/>
-    <col customWidth="1" max="14850" min="14606" style="93" width="8.77734375"/>
-    <col customWidth="1" max="14851" min="14851" style="93" width="5.44140625"/>
-    <col customWidth="1" max="14852" min="14852" style="93" width="15.6640625"/>
-    <col customWidth="1" max="14853" min="14853" style="93" width="18.44140625"/>
-    <col customWidth="1" max="14855" min="14854" style="93" width="13.109375"/>
-    <col customWidth="1" max="14856" min="14856" style="93" width="14.109375"/>
-    <col customWidth="1" max="14857" min="14857" style="93" width="12.109375"/>
-    <col customWidth="1" max="14858" min="14858" style="93" width="9.44140625"/>
-    <col customWidth="1" max="14859" min="14859" style="93" width="15.33203125"/>
-    <col customWidth="1" max="14860" min="14860" style="93" width="10.33203125"/>
-    <col customWidth="1" max="14861" min="14861" style="93" width="15.44140625"/>
-    <col customWidth="1" max="15106" min="14862" style="93" width="8.77734375"/>
-    <col customWidth="1" max="15107" min="15107" style="93" width="5.44140625"/>
-    <col customWidth="1" max="15108" min="15108" style="93" width="15.6640625"/>
-    <col customWidth="1" max="15109" min="15109" style="93" width="18.44140625"/>
-    <col customWidth="1" max="15111" min="15110" style="93" width="13.109375"/>
-    <col customWidth="1" max="15112" min="15112" style="93" width="14.109375"/>
-    <col customWidth="1" max="15113" min="15113" style="93" width="12.109375"/>
-    <col customWidth="1" max="15114" min="15114" style="93" width="9.44140625"/>
-    <col customWidth="1" max="15115" min="15115" style="93" width="15.33203125"/>
-    <col customWidth="1" max="15116" min="15116" style="93" width="10.33203125"/>
-    <col customWidth="1" max="15117" min="15117" style="93" width="15.44140625"/>
-    <col customWidth="1" max="15362" min="15118" style="93" width="8.77734375"/>
-    <col customWidth="1" max="15363" min="15363" style="93" width="5.44140625"/>
-    <col customWidth="1" max="15364" min="15364" style="93" width="15.6640625"/>
-    <col customWidth="1" max="15365" min="15365" style="93" width="18.44140625"/>
-    <col customWidth="1" max="15367" min="15366" style="93" width="13.109375"/>
-    <col customWidth="1" max="15368" min="15368" style="93" width="14.109375"/>
-    <col customWidth="1" max="15369" min="15369" style="93" width="12.109375"/>
-    <col customWidth="1" max="15370" min="15370" style="93" width="9.44140625"/>
-    <col customWidth="1" max="15371" min="15371" style="93" width="15.33203125"/>
-    <col customWidth="1" max="15372" min="15372" style="93" width="10.33203125"/>
-    <col customWidth="1" max="15373" min="15373" style="93" width="15.44140625"/>
-    <col customWidth="1" max="15618" min="15374" style="93" width="8.77734375"/>
-    <col customWidth="1" max="15619" min="15619" style="93" width="5.44140625"/>
-    <col customWidth="1" max="15620" min="15620" style="93" width="15.6640625"/>
-    <col customWidth="1" max="15621" min="15621" style="93" width="18.44140625"/>
-    <col customWidth="1" max="15623" min="15622" style="93" width="13.109375"/>
-    <col customWidth="1" max="15624" min="15624" style="93" width="14.109375"/>
-    <col customWidth="1" max="15625" min="15625" style="93" width="12.109375"/>
-    <col customWidth="1" max="15626" min="15626" style="93" width="9.44140625"/>
-    <col customWidth="1" max="15627" min="15627" style="93" width="15.33203125"/>
-    <col customWidth="1" max="15628" min="15628" style="93" width="10.33203125"/>
-    <col customWidth="1" max="15629" min="15629" style="93" width="15.44140625"/>
-    <col customWidth="1" max="15874" min="15630" style="93" width="8.77734375"/>
-    <col customWidth="1" max="15875" min="15875" style="93" width="5.44140625"/>
-    <col customWidth="1" max="15876" min="15876" style="93" width="15.6640625"/>
-    <col customWidth="1" max="15877" min="15877" style="93" width="18.44140625"/>
-    <col customWidth="1" max="15879" min="15878" style="93" width="13.109375"/>
-    <col customWidth="1" max="15880" min="15880" style="93" width="14.109375"/>
-    <col customWidth="1" max="15881" min="15881" style="93" width="12.109375"/>
-    <col customWidth="1" max="15882" min="15882" style="93" width="9.44140625"/>
-    <col customWidth="1" max="15883" min="15883" style="93" width="15.33203125"/>
-    <col customWidth="1" max="15884" min="15884" style="93" width="10.33203125"/>
-    <col customWidth="1" max="15885" min="15885" style="93" width="15.44140625"/>
-    <col customWidth="1" max="16130" min="15886" style="93" width="8.77734375"/>
-    <col customWidth="1" max="16131" min="16131" style="93" width="5.44140625"/>
-    <col customWidth="1" max="16132" min="16132" style="93" width="15.6640625"/>
-    <col customWidth="1" max="16133" min="16133" style="93" width="18.44140625"/>
-    <col customWidth="1" max="16135" min="16134" style="93" width="13.109375"/>
-    <col customWidth="1" max="16136" min="16136" style="93" width="14.109375"/>
-    <col customWidth="1" max="16137" min="16137" style="93" width="12.109375"/>
-    <col customWidth="1" max="16138" min="16138" style="93" width="9.44140625"/>
-    <col customWidth="1" max="16139" min="16139" style="93" width="15.33203125"/>
-    <col customWidth="1" max="16140" min="16140" style="93" width="10.33203125"/>
-    <col customWidth="1" max="16141" min="16141" style="93" width="15.44140625"/>
-    <col customWidth="1" max="16384" min="16142" style="93" width="8.77734375"/>
+    <col width="4.5546875" customWidth="1" style="93" min="1" max="1"/>
+    <col width="37.109375" customWidth="1" style="104" min="2" max="2"/>
+    <col width="29.88671875" customWidth="1" style="104" min="3" max="3"/>
+    <col width="16.44140625" customWidth="1" style="104" min="4" max="4"/>
+    <col width="10.77734375" customWidth="1" style="33" min="5" max="5"/>
+    <col width="21.44140625" customWidth="1" style="104" min="6" max="6"/>
+    <col width="11.5546875" customWidth="1" style="93" min="7" max="7"/>
+    <col width="10.21875" customWidth="1" style="93" min="8" max="8"/>
+    <col width="14.21875" customWidth="1" style="93" min="9" max="9"/>
+    <col width="11.33203125" customWidth="1" style="93" min="10" max="10"/>
+    <col width="7.5546875" customWidth="1" style="93" min="11" max="11"/>
+    <col width="10.33203125" customWidth="1" style="93" min="12" max="12"/>
+    <col width="16.21875" customWidth="1" style="93" min="13" max="13"/>
+    <col width="8.77734375" customWidth="1" style="93" min="14" max="258"/>
+    <col width="5.44140625" customWidth="1" style="93" min="259" max="259"/>
+    <col width="15.6640625" customWidth="1" style="93" min="260" max="260"/>
+    <col width="18.44140625" customWidth="1" style="93" min="261" max="261"/>
+    <col width="13.109375" customWidth="1" style="93" min="262" max="263"/>
+    <col width="14.109375" customWidth="1" style="93" min="264" max="264"/>
+    <col width="12.109375" customWidth="1" style="93" min="265" max="265"/>
+    <col width="9.44140625" customWidth="1" style="93" min="266" max="266"/>
+    <col width="15.33203125" customWidth="1" style="93" min="267" max="267"/>
+    <col width="10.33203125" customWidth="1" style="93" min="268" max="268"/>
+    <col width="15.44140625" customWidth="1" style="93" min="269" max="269"/>
+    <col width="8.77734375" customWidth="1" style="93" min="270" max="514"/>
+    <col width="5.44140625" customWidth="1" style="93" min="515" max="515"/>
+    <col width="15.6640625" customWidth="1" style="93" min="516" max="516"/>
+    <col width="18.44140625" customWidth="1" style="93" min="517" max="517"/>
+    <col width="13.109375" customWidth="1" style="93" min="518" max="519"/>
+    <col width="14.109375" customWidth="1" style="93" min="520" max="520"/>
+    <col width="12.109375" customWidth="1" style="93" min="521" max="521"/>
+    <col width="9.44140625" customWidth="1" style="93" min="522" max="522"/>
+    <col width="15.33203125" customWidth="1" style="93" min="523" max="523"/>
+    <col width="10.33203125" customWidth="1" style="93" min="524" max="524"/>
+    <col width="15.44140625" customWidth="1" style="93" min="525" max="525"/>
+    <col width="8.77734375" customWidth="1" style="93" min="526" max="770"/>
+    <col width="5.44140625" customWidth="1" style="93" min="771" max="771"/>
+    <col width="15.6640625" customWidth="1" style="93" min="772" max="772"/>
+    <col width="18.44140625" customWidth="1" style="93" min="773" max="773"/>
+    <col width="13.109375" customWidth="1" style="93" min="774" max="775"/>
+    <col width="14.109375" customWidth="1" style="93" min="776" max="776"/>
+    <col width="12.109375" customWidth="1" style="93" min="777" max="777"/>
+    <col width="9.44140625" customWidth="1" style="93" min="778" max="778"/>
+    <col width="15.33203125" customWidth="1" style="93" min="779" max="779"/>
+    <col width="10.33203125" customWidth="1" style="93" min="780" max="780"/>
+    <col width="15.44140625" customWidth="1" style="93" min="781" max="781"/>
+    <col width="8.77734375" customWidth="1" style="93" min="782" max="1026"/>
+    <col width="5.44140625" customWidth="1" style="93" min="1027" max="1027"/>
+    <col width="15.6640625" customWidth="1" style="93" min="1028" max="1028"/>
+    <col width="18.44140625" customWidth="1" style="93" min="1029" max="1029"/>
+    <col width="13.109375" customWidth="1" style="93" min="1030" max="1031"/>
+    <col width="14.109375" customWidth="1" style="93" min="1032" max="1032"/>
+    <col width="12.109375" customWidth="1" style="93" min="1033" max="1033"/>
+    <col width="9.44140625" customWidth="1" style="93" min="1034" max="1034"/>
+    <col width="15.33203125" customWidth="1" style="93" min="1035" max="1035"/>
+    <col width="10.33203125" customWidth="1" style="93" min="1036" max="1036"/>
+    <col width="15.44140625" customWidth="1" style="93" min="1037" max="1037"/>
+    <col width="8.77734375" customWidth="1" style="93" min="1038" max="1282"/>
+    <col width="5.44140625" customWidth="1" style="93" min="1283" max="1283"/>
+    <col width="15.6640625" customWidth="1" style="93" min="1284" max="1284"/>
+    <col width="18.44140625" customWidth="1" style="93" min="1285" max="1285"/>
+    <col width="13.109375" customWidth="1" style="93" min="1286" max="1287"/>
+    <col width="14.109375" customWidth="1" style="93" min="1288" max="1288"/>
+    <col width="12.109375" customWidth="1" style="93" min="1289" max="1289"/>
+    <col width="9.44140625" customWidth="1" style="93" min="1290" max="1290"/>
+    <col width="15.33203125" customWidth="1" style="93" min="1291" max="1291"/>
+    <col width="10.33203125" customWidth="1" style="93" min="1292" max="1292"/>
+    <col width="15.44140625" customWidth="1" style="93" min="1293" max="1293"/>
+    <col width="8.77734375" customWidth="1" style="93" min="1294" max="1538"/>
+    <col width="5.44140625" customWidth="1" style="93" min="1539" max="1539"/>
+    <col width="15.6640625" customWidth="1" style="93" min="1540" max="1540"/>
+    <col width="18.44140625" customWidth="1" style="93" min="1541" max="1541"/>
+    <col width="13.109375" customWidth="1" style="93" min="1542" max="1543"/>
+    <col width="14.109375" customWidth="1" style="93" min="1544" max="1544"/>
+    <col width="12.109375" customWidth="1" style="93" min="1545" max="1545"/>
+    <col width="9.44140625" customWidth="1" style="93" min="1546" max="1546"/>
+    <col width="15.33203125" customWidth="1" style="93" min="1547" max="1547"/>
+    <col width="10.33203125" customWidth="1" style="93" min="1548" max="1548"/>
+    <col width="15.44140625" customWidth="1" style="93" min="1549" max="1549"/>
+    <col width="8.77734375" customWidth="1" style="93" min="1550" max="1794"/>
+    <col width="5.44140625" customWidth="1" style="93" min="1795" max="1795"/>
+    <col width="15.6640625" customWidth="1" style="93" min="1796" max="1796"/>
+    <col width="18.44140625" customWidth="1" style="93" min="1797" max="1797"/>
+    <col width="13.109375" customWidth="1" style="93" min="1798" max="1799"/>
+    <col width="14.109375" customWidth="1" style="93" min="1800" max="1800"/>
+    <col width="12.109375" customWidth="1" style="93" min="1801" max="1801"/>
+    <col width="9.44140625" customWidth="1" style="93" min="1802" max="1802"/>
+    <col width="15.33203125" customWidth="1" style="93" min="1803" max="1803"/>
+    <col width="10.33203125" customWidth="1" style="93" min="1804" max="1804"/>
+    <col width="15.44140625" customWidth="1" style="93" min="1805" max="1805"/>
+    <col width="8.77734375" customWidth="1" style="93" min="1806" max="2050"/>
+    <col width="5.44140625" customWidth="1" style="93" min="2051" max="2051"/>
+    <col width="15.6640625" customWidth="1" style="93" min="2052" max="2052"/>
+    <col width="18.44140625" customWidth="1" style="93" min="2053" max="2053"/>
+    <col width="13.109375" customWidth="1" style="93" min="2054" max="2055"/>
+    <col width="14.109375" customWidth="1" style="93" min="2056" max="2056"/>
+    <col width="12.109375" customWidth="1" style="93" min="2057" max="2057"/>
+    <col width="9.44140625" customWidth="1" style="93" min="2058" max="2058"/>
+    <col width="15.33203125" customWidth="1" style="93" min="2059" max="2059"/>
+    <col width="10.33203125" customWidth="1" style="93" min="2060" max="2060"/>
+    <col width="15.44140625" customWidth="1" style="93" min="2061" max="2061"/>
+    <col width="8.77734375" customWidth="1" style="93" min="2062" max="2306"/>
+    <col width="5.44140625" customWidth="1" style="93" min="2307" max="2307"/>
+    <col width="15.6640625" customWidth="1" style="93" min="2308" max="2308"/>
+    <col width="18.44140625" customWidth="1" style="93" min="2309" max="2309"/>
+    <col width="13.109375" customWidth="1" style="93" min="2310" max="2311"/>
+    <col width="14.109375" customWidth="1" style="93" min="2312" max="2312"/>
+    <col width="12.109375" customWidth="1" style="93" min="2313" max="2313"/>
+    <col width="9.44140625" customWidth="1" style="93" min="2314" max="2314"/>
+    <col width="15.33203125" customWidth="1" style="93" min="2315" max="2315"/>
+    <col width="10.33203125" customWidth="1" style="93" min="2316" max="2316"/>
+    <col width="15.44140625" customWidth="1" style="93" min="2317" max="2317"/>
+    <col width="8.77734375" customWidth="1" style="93" min="2318" max="2562"/>
+    <col width="5.44140625" customWidth="1" style="93" min="2563" max="2563"/>
+    <col width="15.6640625" customWidth="1" style="93" min="2564" max="2564"/>
+    <col width="18.44140625" customWidth="1" style="93" min="2565" max="2565"/>
+    <col width="13.109375" customWidth="1" style="93" min="2566" max="2567"/>
+    <col width="14.109375" customWidth="1" style="93" min="2568" max="2568"/>
+    <col width="12.109375" customWidth="1" style="93" min="2569" max="2569"/>
+    <col width="9.44140625" customWidth="1" style="93" min="2570" max="2570"/>
+    <col width="15.33203125" customWidth="1" style="93" min="2571" max="2571"/>
+    <col width="10.33203125" customWidth="1" style="93" min="2572" max="2572"/>
+    <col width="15.44140625" customWidth="1" style="93" min="2573" max="2573"/>
+    <col width="8.77734375" customWidth="1" style="93" min="2574" max="2818"/>
+    <col width="5.44140625" customWidth="1" style="93" min="2819" max="2819"/>
+    <col width="15.6640625" customWidth="1" style="93" min="2820" max="2820"/>
+    <col width="18.44140625" customWidth="1" style="93" min="2821" max="2821"/>
+    <col width="13.109375" customWidth="1" style="93" min="2822" max="2823"/>
+    <col width="14.109375" customWidth="1" style="93" min="2824" max="2824"/>
+    <col width="12.109375" customWidth="1" style="93" min="2825" max="2825"/>
+    <col width="9.44140625" customWidth="1" style="93" min="2826" max="2826"/>
+    <col width="15.33203125" customWidth="1" style="93" min="2827" max="2827"/>
+    <col width="10.33203125" customWidth="1" style="93" min="2828" max="2828"/>
+    <col width="15.44140625" customWidth="1" style="93" min="2829" max="2829"/>
+    <col width="8.77734375" customWidth="1" style="93" min="2830" max="3074"/>
+    <col width="5.44140625" customWidth="1" style="93" min="3075" max="3075"/>
+    <col width="15.6640625" customWidth="1" style="93" min="3076" max="3076"/>
+    <col width="18.44140625" customWidth="1" style="93" min="3077" max="3077"/>
+    <col width="13.109375" customWidth="1" style="93" min="3078" max="3079"/>
+    <col width="14.109375" customWidth="1" style="93" min="3080" max="3080"/>
+    <col width="12.109375" customWidth="1" style="93" min="3081" max="3081"/>
+    <col width="9.44140625" customWidth="1" style="93" min="3082" max="3082"/>
+    <col width="15.33203125" customWidth="1" style="93" min="3083" max="3083"/>
+    <col width="10.33203125" customWidth="1" style="93" min="3084" max="3084"/>
+    <col width="15.44140625" customWidth="1" style="93" min="3085" max="3085"/>
+    <col width="8.77734375" customWidth="1" style="93" min="3086" max="3330"/>
+    <col width="5.44140625" customWidth="1" style="93" min="3331" max="3331"/>
+    <col width="15.6640625" customWidth="1" style="93" min="3332" max="3332"/>
+    <col width="18.44140625" customWidth="1" style="93" min="3333" max="3333"/>
+    <col width="13.109375" customWidth="1" style="93" min="3334" max="3335"/>
+    <col width="14.109375" customWidth="1" style="93" min="3336" max="3336"/>
+    <col width="12.109375" customWidth="1" style="93" min="3337" max="3337"/>
+    <col width="9.44140625" customWidth="1" style="93" min="3338" max="3338"/>
+    <col width="15.33203125" customWidth="1" style="93" min="3339" max="3339"/>
+    <col width="10.33203125" customWidth="1" style="93" min="3340" max="3340"/>
+    <col width="15.44140625" customWidth="1" style="93" min="3341" max="3341"/>
+    <col width="8.77734375" customWidth="1" style="93" min="3342" max="3586"/>
+    <col width="5.44140625" customWidth="1" style="93" min="3587" max="3587"/>
+    <col width="15.6640625" customWidth="1" style="93" min="3588" max="3588"/>
+    <col width="18.44140625" customWidth="1" style="93" min="3589" max="3589"/>
+    <col width="13.109375" customWidth="1" style="93" min="3590" max="3591"/>
+    <col width="14.109375" customWidth="1" style="93" min="3592" max="3592"/>
+    <col width="12.109375" customWidth="1" style="93" min="3593" max="3593"/>
+    <col width="9.44140625" customWidth="1" style="93" min="3594" max="3594"/>
+    <col width="15.33203125" customWidth="1" style="93" min="3595" max="3595"/>
+    <col width="10.33203125" customWidth="1" style="93" min="3596" max="3596"/>
+    <col width="15.44140625" customWidth="1" style="93" min="3597" max="3597"/>
+    <col width="8.77734375" customWidth="1" style="93" min="3598" max="3842"/>
+    <col width="5.44140625" customWidth="1" style="93" min="3843" max="3843"/>
+    <col width="15.6640625" customWidth="1" style="93" min="3844" max="3844"/>
+    <col width="18.44140625" customWidth="1" style="93" min="3845" max="3845"/>
+    <col width="13.109375" customWidth="1" style="93" min="3846" max="3847"/>
+    <col width="14.109375" customWidth="1" style="93" min="3848" max="3848"/>
+    <col width="12.109375" customWidth="1" style="93" min="3849" max="3849"/>
+    <col width="9.44140625" customWidth="1" style="93" min="3850" max="3850"/>
+    <col width="15.33203125" customWidth="1" style="93" min="3851" max="3851"/>
+    <col width="10.33203125" customWidth="1" style="93" min="3852" max="3852"/>
+    <col width="15.44140625" customWidth="1" style="93" min="3853" max="3853"/>
+    <col width="8.77734375" customWidth="1" style="93" min="3854" max="4098"/>
+    <col width="5.44140625" customWidth="1" style="93" min="4099" max="4099"/>
+    <col width="15.6640625" customWidth="1" style="93" min="4100" max="4100"/>
+    <col width="18.44140625" customWidth="1" style="93" min="4101" max="4101"/>
+    <col width="13.109375" customWidth="1" style="93" min="4102" max="4103"/>
+    <col width="14.109375" customWidth="1" style="93" min="4104" max="4104"/>
+    <col width="12.109375" customWidth="1" style="93" min="4105" max="4105"/>
+    <col width="9.44140625" customWidth="1" style="93" min="4106" max="4106"/>
+    <col width="15.33203125" customWidth="1" style="93" min="4107" max="4107"/>
+    <col width="10.33203125" customWidth="1" style="93" min="4108" max="4108"/>
+    <col width="15.44140625" customWidth="1" style="93" min="4109" max="4109"/>
+    <col width="8.77734375" customWidth="1" style="93" min="4110" max="4354"/>
+    <col width="5.44140625" customWidth="1" style="93" min="4355" max="4355"/>
+    <col width="15.6640625" customWidth="1" style="93" min="4356" max="4356"/>
+    <col width="18.44140625" customWidth="1" style="93" min="4357" max="4357"/>
+    <col width="13.109375" customWidth="1" style="93" min="4358" max="4359"/>
+    <col width="14.109375" customWidth="1" style="93" min="4360" max="4360"/>
+    <col width="12.109375" customWidth="1" style="93" min="4361" max="4361"/>
+    <col width="9.44140625" customWidth="1" style="93" min="4362" max="4362"/>
+    <col width="15.33203125" customWidth="1" style="93" min="4363" max="4363"/>
+    <col width="10.33203125" customWidth="1" style="93" min="4364" max="4364"/>
+    <col width="15.44140625" customWidth="1" style="93" min="4365" max="4365"/>
+    <col width="8.77734375" customWidth="1" style="93" min="4366" max="4610"/>
+    <col width="5.44140625" customWidth="1" style="93" min="4611" max="4611"/>
+    <col width="15.6640625" customWidth="1" style="93" min="4612" max="4612"/>
+    <col width="18.44140625" customWidth="1" style="93" min="4613" max="4613"/>
+    <col width="13.109375" customWidth="1" style="93" min="4614" max="4615"/>
+    <col width="14.109375" customWidth="1" style="93" min="4616" max="4616"/>
+    <col width="12.109375" customWidth="1" style="93" min="4617" max="4617"/>
+    <col width="9.44140625" customWidth="1" style="93" min="4618" max="4618"/>
+    <col width="15.33203125" customWidth="1" style="93" min="4619" max="4619"/>
+    <col width="10.33203125" customWidth="1" style="93" min="4620" max="4620"/>
+    <col width="15.44140625" customWidth="1" style="93" min="4621" max="4621"/>
+    <col width="8.77734375" customWidth="1" style="93" min="4622" max="4866"/>
+    <col width="5.44140625" customWidth="1" style="93" min="4867" max="4867"/>
+    <col width="15.6640625" customWidth="1" style="93" min="4868" max="4868"/>
+    <col width="18.44140625" customWidth="1" style="93" min="4869" max="4869"/>
+    <col width="13.109375" customWidth="1" style="93" min="4870" max="4871"/>
+    <col width="14.109375" customWidth="1" style="93" min="4872" max="4872"/>
+    <col width="12.109375" customWidth="1" style="93" min="4873" max="4873"/>
+    <col width="9.44140625" customWidth="1" style="93" min="4874" max="4874"/>
+    <col width="15.33203125" customWidth="1" style="93" min="4875" max="4875"/>
+    <col width="10.33203125" customWidth="1" style="93" min="4876" max="4876"/>
+    <col width="15.44140625" customWidth="1" style="93" min="4877" max="4877"/>
+    <col width="8.77734375" customWidth="1" style="93" min="4878" max="5122"/>
+    <col width="5.44140625" customWidth="1" style="93" min="5123" max="5123"/>
+    <col width="15.6640625" customWidth="1" style="93" min="5124" max="5124"/>
+    <col width="18.44140625" customWidth="1" style="93" min="5125" max="5125"/>
+    <col width="13.109375" customWidth="1" style="93" min="5126" max="5127"/>
+    <col width="14.109375" customWidth="1" style="93" min="5128" max="5128"/>
+    <col width="12.109375" customWidth="1" style="93" min="5129" max="5129"/>
+    <col width="9.44140625" customWidth="1" style="93" min="5130" max="5130"/>
+    <col width="15.33203125" customWidth="1" style="93" min="5131" max="5131"/>
+    <col width="10.33203125" customWidth="1" style="93" min="5132" max="5132"/>
+    <col width="15.44140625" customWidth="1" style="93" min="5133" max="5133"/>
+    <col width="8.77734375" customWidth="1" style="93" min="5134" max="5378"/>
+    <col width="5.44140625" customWidth="1" style="93" min="5379" max="5379"/>
+    <col width="15.6640625" customWidth="1" style="93" min="5380" max="5380"/>
+    <col width="18.44140625" customWidth="1" style="93" min="5381" max="5381"/>
+    <col width="13.109375" customWidth="1" style="93" min="5382" max="5383"/>
+    <col width="14.109375" customWidth="1" style="93" min="5384" max="5384"/>
+    <col width="12.109375" customWidth="1" style="93" min="5385" max="5385"/>
+    <col width="9.44140625" customWidth="1" style="93" min="5386" max="5386"/>
+    <col width="15.33203125" customWidth="1" style="93" min="5387" max="5387"/>
+    <col width="10.33203125" customWidth="1" style="93" min="5388" max="5388"/>
+    <col width="15.44140625" customWidth="1" style="93" min="5389" max="5389"/>
+    <col width="8.77734375" customWidth="1" style="93" min="5390" max="5634"/>
+    <col width="5.44140625" customWidth="1" style="93" min="5635" max="5635"/>
+    <col width="15.6640625" customWidth="1" style="93" min="5636" max="5636"/>
+    <col width="18.44140625" customWidth="1" style="93" min="5637" max="5637"/>
+    <col width="13.109375" customWidth="1" style="93" min="5638" max="5639"/>
+    <col width="14.109375" customWidth="1" style="93" min="5640" max="5640"/>
+    <col width="12.109375" customWidth="1" style="93" min="5641" max="5641"/>
+    <col width="9.44140625" customWidth="1" style="93" min="5642" max="5642"/>
+    <col width="15.33203125" customWidth="1" style="93" min="5643" max="5643"/>
+    <col width="10.33203125" customWidth="1" style="93" min="5644" max="5644"/>
+    <col width="15.44140625" customWidth="1" style="93" min="5645" max="5645"/>
+    <col width="8.77734375" customWidth="1" style="93" min="5646" max="5890"/>
+    <col width="5.44140625" customWidth="1" style="93" min="5891" max="5891"/>
+    <col width="15.6640625" customWidth="1" style="93" min="5892" max="5892"/>
+    <col width="18.44140625" customWidth="1" style="93" min="5893" max="5893"/>
+    <col width="13.109375" customWidth="1" style="93" min="5894" max="5895"/>
+    <col width="14.109375" customWidth="1" style="93" min="5896" max="5896"/>
+    <col width="12.109375" customWidth="1" style="93" min="5897" max="5897"/>
+    <col width="9.44140625" customWidth="1" style="93" min="5898" max="5898"/>
+    <col width="15.33203125" customWidth="1" style="93" min="5899" max="5899"/>
+    <col width="10.33203125" customWidth="1" style="93" min="5900" max="5900"/>
+    <col width="15.44140625" customWidth="1" style="93" min="5901" max="5901"/>
+    <col width="8.77734375" customWidth="1" style="93" min="5902" max="6146"/>
+    <col width="5.44140625" customWidth="1" style="93" min="6147" max="6147"/>
+    <col width="15.6640625" customWidth="1" style="93" min="6148" max="6148"/>
+    <col width="18.44140625" customWidth="1" style="93" min="6149" max="6149"/>
+    <col width="13.109375" customWidth="1" style="93" min="6150" max="6151"/>
+    <col width="14.109375" customWidth="1" style="93" min="6152" max="6152"/>
+    <col width="12.109375" customWidth="1" style="93" min="6153" max="6153"/>
+    <col width="9.44140625" customWidth="1" style="93" min="6154" max="6154"/>
+    <col width="15.33203125" customWidth="1" style="93" min="6155" max="6155"/>
+    <col width="10.33203125" customWidth="1" style="93" min="6156" max="6156"/>
+    <col width="15.44140625" customWidth="1" style="93" min="6157" max="6157"/>
+    <col width="8.77734375" customWidth="1" style="93" min="6158" max="6402"/>
+    <col width="5.44140625" customWidth="1" style="93" min="6403" max="6403"/>
+    <col width="15.6640625" customWidth="1" style="93" min="6404" max="6404"/>
+    <col width="18.44140625" customWidth="1" style="93" min="6405" max="6405"/>
+    <col width="13.109375" customWidth="1" style="93" min="6406" max="6407"/>
+    <col width="14.109375" customWidth="1" style="93" min="6408" max="6408"/>
+    <col width="12.109375" customWidth="1" style="93" min="6409" max="6409"/>
+    <col width="9.44140625" customWidth="1" style="93" min="6410" max="6410"/>
+    <col width="15.33203125" customWidth="1" style="93" min="6411" max="6411"/>
+    <col width="10.33203125" customWidth="1" style="93" min="6412" max="6412"/>
+    <col width="15.44140625" customWidth="1" style="93" min="6413" max="6413"/>
+    <col width="8.77734375" customWidth="1" style="93" min="6414" max="6658"/>
+    <col width="5.44140625" customWidth="1" style="93" min="6659" max="6659"/>
+    <col width="15.6640625" customWidth="1" style="93" min="6660" max="6660"/>
+    <col width="18.44140625" customWidth="1" style="93" min="6661" max="6661"/>
+    <col width="13.109375" customWidth="1" style="93" min="6662" max="6663"/>
+    <col width="14.109375" customWidth="1" style="93" min="6664" max="6664"/>
+    <col width="12.109375" customWidth="1" style="93" min="6665" max="6665"/>
+    <col width="9.44140625" customWidth="1" style="93" min="6666" max="6666"/>
+    <col width="15.33203125" customWidth="1" style="93" min="6667" max="6667"/>
+    <col width="10.33203125" customWidth="1" style="93" min="6668" max="6668"/>
+    <col width="15.44140625" customWidth="1" style="93" min="6669" max="6669"/>
+    <col width="8.77734375" customWidth="1" style="93" min="6670" max="6914"/>
+    <col width="5.44140625" customWidth="1" style="93" min="6915" max="6915"/>
+    <col width="15.6640625" customWidth="1" style="93" min="6916" max="6916"/>
+    <col width="18.44140625" customWidth="1" style="93" min="6917" max="6917"/>
+    <col width="13.109375" customWidth="1" style="93" min="6918" max="6919"/>
+    <col width="14.109375" customWidth="1" style="93" min="6920" max="6920"/>
+    <col width="12.109375" customWidth="1" style="93" min="6921" max="6921"/>
+    <col width="9.44140625" customWidth="1" style="93" min="6922" max="6922"/>
+    <col width="15.33203125" customWidth="1" style="93" min="6923" max="6923"/>
+    <col width="10.33203125" customWidth="1" style="93" min="6924" max="6924"/>
+    <col width="15.44140625" customWidth="1" style="93" min="6925" max="6925"/>
+    <col width="8.77734375" customWidth="1" style="93" min="6926" max="7170"/>
+    <col width="5.44140625" customWidth="1" style="93" min="7171" max="7171"/>
+    <col width="15.6640625" customWidth="1" style="93" min="7172" max="7172"/>
+    <col width="18.44140625" customWidth="1" style="93" min="7173" max="7173"/>
+    <col width="13.109375" customWidth="1" style="93" min="7174" max="7175"/>
+    <col width="14.109375" customWidth="1" style="93" min="7176" max="7176"/>
+    <col width="12.109375" customWidth="1" style="93" min="7177" max="7177"/>
+    <col width="9.44140625" customWidth="1" style="93" min="7178" max="7178"/>
+    <col width="15.33203125" customWidth="1" style="93" min="7179" max="7179"/>
+    <col width="10.33203125" customWidth="1" style="93" min="7180" max="7180"/>
+    <col width="15.44140625" customWidth="1" style="93" min="7181" max="7181"/>
+    <col width="8.77734375" customWidth="1" style="93" min="7182" max="7426"/>
+    <col width="5.44140625" customWidth="1" style="93" min="7427" max="7427"/>
+    <col width="15.6640625" customWidth="1" style="93" min="7428" max="7428"/>
+    <col width="18.44140625" customWidth="1" style="93" min="7429" max="7429"/>
+    <col width="13.109375" customWidth="1" style="93" min="7430" max="7431"/>
+    <col width="14.109375" customWidth="1" style="93" min="7432" max="7432"/>
+    <col width="12.109375" customWidth="1" style="93" min="7433" max="7433"/>
+    <col width="9.44140625" customWidth="1" style="93" min="7434" max="7434"/>
+    <col width="15.33203125" customWidth="1" style="93" min="7435" max="7435"/>
+    <col width="10.33203125" customWidth="1" style="93" min="7436" max="7436"/>
+    <col width="15.44140625" customWidth="1" style="93" min="7437" max="7437"/>
+    <col width="8.77734375" customWidth="1" style="93" min="7438" max="7682"/>
+    <col width="5.44140625" customWidth="1" style="93" min="7683" max="7683"/>
+    <col width="15.6640625" customWidth="1" style="93" min="7684" max="7684"/>
+    <col width="18.44140625" customWidth="1" style="93" min="7685" max="7685"/>
+    <col width="13.109375" customWidth="1" style="93" min="7686" max="7687"/>
+    <col width="14.109375" customWidth="1" style="93" min="7688" max="7688"/>
+    <col width="12.109375" customWidth="1" style="93" min="7689" max="7689"/>
+    <col width="9.44140625" customWidth="1" style="93" min="7690" max="7690"/>
+    <col width="15.33203125" customWidth="1" style="93" min="7691" max="7691"/>
+    <col width="10.33203125" customWidth="1" style="93" min="7692" max="7692"/>
+    <col width="15.44140625" customWidth="1" style="93" min="7693" max="7693"/>
+    <col width="8.77734375" customWidth="1" style="93" min="7694" max="7938"/>
+    <col width="5.44140625" customWidth="1" style="93" min="7939" max="7939"/>
+    <col width="15.6640625" customWidth="1" style="93" min="7940" max="7940"/>
+    <col width="18.44140625" customWidth="1" style="93" min="7941" max="7941"/>
+    <col width="13.109375" customWidth="1" style="93" min="7942" max="7943"/>
+    <col width="14.109375" customWidth="1" style="93" min="7944" max="7944"/>
+    <col width="12.109375" customWidth="1" style="93" min="7945" max="7945"/>
+    <col width="9.44140625" customWidth="1" style="93" min="7946" max="7946"/>
+    <col width="15.33203125" customWidth="1" style="93" min="7947" max="7947"/>
+    <col width="10.33203125" customWidth="1" style="93" min="7948" max="7948"/>
+    <col width="15.44140625" customWidth="1" style="93" min="7949" max="7949"/>
+    <col width="8.77734375" customWidth="1" style="93" min="7950" max="8194"/>
+    <col width="5.44140625" customWidth="1" style="93" min="8195" max="8195"/>
+    <col width="15.6640625" customWidth="1" style="93" min="8196" max="8196"/>
+    <col width="18.44140625" customWidth="1" style="93" min="8197" max="8197"/>
+    <col width="13.109375" customWidth="1" style="93" min="8198" max="8199"/>
+    <col width="14.109375" customWidth="1" style="93" min="8200" max="8200"/>
+    <col width="12.109375" customWidth="1" style="93" min="8201" max="8201"/>
+    <col width="9.44140625" customWidth="1" style="93" min="8202" max="8202"/>
+    <col width="15.33203125" customWidth="1" style="93" min="8203" max="8203"/>
+    <col width="10.33203125" customWidth="1" style="93" min="8204" max="8204"/>
+    <col width="15.44140625" customWidth="1" style="93" min="8205" max="8205"/>
+    <col width="8.77734375" customWidth="1" style="93" min="8206" max="8450"/>
+    <col width="5.44140625" customWidth="1" style="93" min="8451" max="8451"/>
+    <col width="15.6640625" customWidth="1" style="93" min="8452" max="8452"/>
+    <col width="18.44140625" customWidth="1" style="93" min="8453" max="8453"/>
+    <col width="13.109375" customWidth="1" style="93" min="8454" max="8455"/>
+    <col width="14.109375" customWidth="1" style="93" min="8456" max="8456"/>
+    <col width="12.109375" customWidth="1" style="93" min="8457" max="8457"/>
+    <col width="9.44140625" customWidth="1" style="93" min="8458" max="8458"/>
+    <col width="15.33203125" customWidth="1" style="93" min="8459" max="8459"/>
+    <col width="10.33203125" customWidth="1" style="93" min="8460" max="8460"/>
+    <col width="15.44140625" customWidth="1" style="93" min="8461" max="8461"/>
+    <col width="8.77734375" customWidth="1" style="93" min="8462" max="8706"/>
+    <col width="5.44140625" customWidth="1" style="93" min="8707" max="8707"/>
+    <col width="15.6640625" customWidth="1" style="93" min="8708" max="8708"/>
+    <col width="18.44140625" customWidth="1" style="93" min="8709" max="8709"/>
+    <col width="13.109375" customWidth="1" style="93" min="8710" max="8711"/>
+    <col width="14.109375" customWidth="1" style="93" min="8712" max="8712"/>
+    <col width="12.109375" customWidth="1" style="93" min="8713" max="8713"/>
+    <col width="9.44140625" customWidth="1" style="93" min="8714" max="8714"/>
+    <col width="15.33203125" customWidth="1" style="93" min="8715" max="8715"/>
+    <col width="10.33203125" customWidth="1" style="93" min="8716" max="8716"/>
+    <col width="15.44140625" customWidth="1" style="93" min="8717" max="8717"/>
+    <col width="8.77734375" customWidth="1" style="93" min="8718" max="8962"/>
+    <col width="5.44140625" customWidth="1" style="93" min="8963" max="8963"/>
+    <col width="15.6640625" customWidth="1" style="93" min="8964" max="8964"/>
+    <col width="18.44140625" customWidth="1" style="93" min="8965" max="8965"/>
+    <col width="13.109375" customWidth="1" style="93" min="8966" max="8967"/>
+    <col width="14.109375" customWidth="1" style="93" min="8968" max="8968"/>
+    <col width="12.109375" customWidth="1" style="93" min="8969" max="8969"/>
+    <col width="9.44140625" customWidth="1" style="93" min="8970" max="8970"/>
+    <col width="15.33203125" customWidth="1" style="93" min="8971" max="8971"/>
+    <col width="10.33203125" customWidth="1" style="93" min="8972" max="8972"/>
+    <col width="15.44140625" customWidth="1" style="93" min="8973" max="8973"/>
+    <col width="8.77734375" customWidth="1" style="93" min="8974" max="9218"/>
+    <col width="5.44140625" customWidth="1" style="93" min="9219" max="9219"/>
+    <col width="15.6640625" customWidth="1" style="93" min="9220" max="9220"/>
+    <col width="18.44140625" customWidth="1" style="93" min="9221" max="9221"/>
+    <col width="13.109375" customWidth="1" style="93" min="9222" max="9223"/>
+    <col width="14.109375" customWidth="1" style="93" min="9224" max="9224"/>
+    <col width="12.109375" customWidth="1" style="93" min="9225" max="9225"/>
+    <col width="9.44140625" customWidth="1" style="93" min="9226" max="9226"/>
+    <col width="15.33203125" customWidth="1" style="93" min="9227" max="9227"/>
+    <col width="10.33203125" customWidth="1" style="93" min="9228" max="9228"/>
+    <col width="15.44140625" customWidth="1" style="93" min="9229" max="9229"/>
+    <col width="8.77734375" customWidth="1" style="93" min="9230" max="9474"/>
+    <col width="5.44140625" customWidth="1" style="93" min="9475" max="9475"/>
+    <col width="15.6640625" customWidth="1" style="93" min="9476" max="9476"/>
+    <col width="18.44140625" customWidth="1" style="93" min="9477" max="9477"/>
+    <col width="13.109375" customWidth="1" style="93" min="9478" max="9479"/>
+    <col width="14.109375" customWidth="1" style="93" min="9480" max="9480"/>
+    <col width="12.109375" customWidth="1" style="93" min="9481" max="9481"/>
+    <col width="9.44140625" customWidth="1" style="93" min="9482" max="9482"/>
+    <col width="15.33203125" customWidth="1" style="93" min="9483" max="9483"/>
+    <col width="10.33203125" customWidth="1" style="93" min="9484" max="9484"/>
+    <col width="15.44140625" customWidth="1" style="93" min="9485" max="9485"/>
+    <col width="8.77734375" customWidth="1" style="93" min="9486" max="9730"/>
+    <col width="5.44140625" customWidth="1" style="93" min="9731" max="9731"/>
+    <col width="15.6640625" customWidth="1" style="93" min="9732" max="9732"/>
+    <col width="18.44140625" customWidth="1" style="93" min="9733" max="9733"/>
+    <col width="13.109375" customWidth="1" style="93" min="9734" max="9735"/>
+    <col width="14.109375" customWidth="1" style="93" min="9736" max="9736"/>
+    <col width="12.109375" customWidth="1" style="93" min="9737" max="9737"/>
+    <col width="9.44140625" customWidth="1" style="93" min="9738" max="9738"/>
+    <col width="15.33203125" customWidth="1" style="93" min="9739" max="9739"/>
+    <col width="10.33203125" customWidth="1" style="93" min="9740" max="9740"/>
+    <col width="15.44140625" customWidth="1" style="93" min="9741" max="9741"/>
+    <col width="8.77734375" customWidth="1" style="93" min="9742" max="9986"/>
+    <col width="5.44140625" customWidth="1" style="93" min="9987" max="9987"/>
+    <col width="15.6640625" customWidth="1" style="93" min="9988" max="9988"/>
+    <col width="18.44140625" customWidth="1" style="93" min="9989" max="9989"/>
+    <col width="13.109375" customWidth="1" style="93" min="9990" max="9991"/>
+    <col width="14.109375" customWidth="1" style="93" min="9992" max="9992"/>
+    <col width="12.109375" customWidth="1" style="93" min="9993" max="9993"/>
+    <col width="9.44140625" customWidth="1" style="93" min="9994" max="9994"/>
+    <col width="15.33203125" customWidth="1" style="93" min="9995" max="9995"/>
+    <col width="10.33203125" customWidth="1" style="93" min="9996" max="9996"/>
+    <col width="15.44140625" customWidth="1" style="93" min="9997" max="9997"/>
+    <col width="8.77734375" customWidth="1" style="93" min="9998" max="10242"/>
+    <col width="5.44140625" customWidth="1" style="93" min="10243" max="10243"/>
+    <col width="15.6640625" customWidth="1" style="93" min="10244" max="10244"/>
+    <col width="18.44140625" customWidth="1" style="93" min="10245" max="10245"/>
+    <col width="13.109375" customWidth="1" style="93" min="10246" max="10247"/>
+    <col width="14.109375" customWidth="1" style="93" min="10248" max="10248"/>
+    <col width="12.109375" customWidth="1" style="93" min="10249" max="10249"/>
+    <col width="9.44140625" customWidth="1" style="93" min="10250" max="10250"/>
+    <col width="15.33203125" customWidth="1" style="93" min="10251" max="10251"/>
+    <col width="10.33203125" customWidth="1" style="93" min="10252" max="10252"/>
+    <col width="15.44140625" customWidth="1" style="93" min="10253" max="10253"/>
+    <col width="8.77734375" customWidth="1" style="93" min="10254" max="10498"/>
+    <col width="5.44140625" customWidth="1" style="93" min="10499" max="10499"/>
+    <col width="15.6640625" customWidth="1" style="93" min="10500" max="10500"/>
+    <col width="18.44140625" customWidth="1" style="93" min="10501" max="10501"/>
+    <col width="13.109375" customWidth="1" style="93" min="10502" max="10503"/>
+    <col width="14.109375" customWidth="1" style="93" min="10504" max="10504"/>
+    <col width="12.109375" customWidth="1" style="93" min="10505" max="10505"/>
+    <col width="9.44140625" customWidth="1" style="93" min="10506" max="10506"/>
+    <col width="15.33203125" customWidth="1" style="93" min="10507" max="10507"/>
+    <col width="10.33203125" customWidth="1" style="93" min="10508" max="10508"/>
+    <col width="15.44140625" customWidth="1" style="93" min="10509" max="10509"/>
+    <col width="8.77734375" customWidth="1" style="93" min="10510" max="10754"/>
+    <col width="5.44140625" customWidth="1" style="93" min="10755" max="10755"/>
+    <col width="15.6640625" customWidth="1" style="93" min="10756" max="10756"/>
+    <col width="18.44140625" customWidth="1" style="93" min="10757" max="10757"/>
+    <col width="13.109375" customWidth="1" style="93" min="10758" max="10759"/>
+    <col width="14.109375" customWidth="1" style="93" min="10760" max="10760"/>
+    <col width="12.109375" customWidth="1" style="93" min="10761" max="10761"/>
+    <col width="9.44140625" customWidth="1" style="93" min="10762" max="10762"/>
+    <col width="15.33203125" customWidth="1" style="93" min="10763" max="10763"/>
+    <col width="10.33203125" customWidth="1" style="93" min="10764" max="10764"/>
+    <col width="15.44140625" customWidth="1" style="93" min="10765" max="10765"/>
+    <col width="8.77734375" customWidth="1" style="93" min="10766" max="11010"/>
+    <col width="5.44140625" customWidth="1" style="93" min="11011" max="11011"/>
+    <col width="15.6640625" customWidth="1" style="93" min="11012" max="11012"/>
+    <col width="18.44140625" customWidth="1" style="93" min="11013" max="11013"/>
+    <col width="13.109375" customWidth="1" style="93" min="11014" max="11015"/>
+    <col width="14.109375" customWidth="1" style="93" min="11016" max="11016"/>
+    <col width="12.109375" customWidth="1" style="93" min="11017" max="11017"/>
+    <col width="9.44140625" customWidth="1" style="93" min="11018" max="11018"/>
+    <col width="15.33203125" customWidth="1" style="93" min="11019" max="11019"/>
+    <col width="10.33203125" customWidth="1" style="93" min="11020" max="11020"/>
+    <col width="15.44140625" customWidth="1" style="93" min="11021" max="11021"/>
+    <col width="8.77734375" customWidth="1" style="93" min="11022" max="11266"/>
+    <col width="5.44140625" customWidth="1" style="93" min="11267" max="11267"/>
+    <col width="15.6640625" customWidth="1" style="93" min="11268" max="11268"/>
+    <col width="18.44140625" customWidth="1" style="93" min="11269" max="11269"/>
+    <col width="13.109375" customWidth="1" style="93" min="11270" max="11271"/>
+    <col width="14.109375" customWidth="1" style="93" min="11272" max="11272"/>
+    <col width="12.109375" customWidth="1" style="93" min="11273" max="11273"/>
+    <col width="9.44140625" customWidth="1" style="93" min="11274" max="11274"/>
+    <col width="15.33203125" customWidth="1" style="93" min="11275" max="11275"/>
+    <col width="10.33203125" customWidth="1" style="93" min="11276" max="11276"/>
+    <col width="15.44140625" customWidth="1" style="93" min="11277" max="11277"/>
+    <col width="8.77734375" customWidth="1" style="93" min="11278" max="11522"/>
+    <col width="5.44140625" customWidth="1" style="93" min="11523" max="11523"/>
+    <col width="15.6640625" customWidth="1" style="93" min="11524" max="11524"/>
+    <col width="18.44140625" customWidth="1" style="93" min="11525" max="11525"/>
+    <col width="13.109375" customWidth="1" style="93" min="11526" max="11527"/>
+    <col width="14.109375" customWidth="1" style="93" min="11528" max="11528"/>
+    <col width="12.109375" customWidth="1" style="93" min="11529" max="11529"/>
+    <col width="9.44140625" customWidth="1" style="93" min="11530" max="11530"/>
+    <col width="15.33203125" customWidth="1" style="93" min="11531" max="11531"/>
+    <col width="10.33203125" customWidth="1" style="93" min="11532" max="11532"/>
+    <col width="15.44140625" customWidth="1" style="93" min="11533" max="11533"/>
+    <col width="8.77734375" customWidth="1" style="93" min="11534" max="11778"/>
+    <col width="5.44140625" customWidth="1" style="93" min="11779" max="11779"/>
+    <col width="15.6640625" customWidth="1" style="93" min="11780" max="11780"/>
+    <col width="18.44140625" customWidth="1" style="93" min="11781" max="11781"/>
+    <col width="13.109375" customWidth="1" style="93" min="11782" max="11783"/>
+    <col width="14.109375" customWidth="1" style="93" min="11784" max="11784"/>
+    <col width="12.109375" customWidth="1" style="93" min="11785" max="11785"/>
+    <col width="9.44140625" customWidth="1" style="93" min="11786" max="11786"/>
+    <col width="15.33203125" customWidth="1" style="93" min="11787" max="11787"/>
+    <col width="10.33203125" customWidth="1" style="93" min="11788" max="11788"/>
+    <col width="15.44140625" customWidth="1" style="93" min="11789" max="11789"/>
+    <col width="8.77734375" customWidth="1" style="93" min="11790" max="12034"/>
+    <col width="5.44140625" customWidth="1" style="93" min="12035" max="12035"/>
+    <col width="15.6640625" customWidth="1" style="93" min="12036" max="12036"/>
+    <col width="18.44140625" customWidth="1" style="93" min="12037" max="12037"/>
+    <col width="13.109375" customWidth="1" style="93" min="12038" max="12039"/>
+    <col width="14.109375" customWidth="1" style="93" min="12040" max="12040"/>
+    <col width="12.109375" customWidth="1" style="93" min="12041" max="12041"/>
+    <col width="9.44140625" customWidth="1" style="93" min="12042" max="12042"/>
+    <col width="15.33203125" customWidth="1" style="93" min="12043" max="12043"/>
+    <col width="10.33203125" customWidth="1" style="93" min="12044" max="12044"/>
+    <col width="15.44140625" customWidth="1" style="93" min="12045" max="12045"/>
+    <col width="8.77734375" customWidth="1" style="93" min="12046" max="12290"/>
+    <col width="5.44140625" customWidth="1" style="93" min="12291" max="12291"/>
+    <col width="15.6640625" customWidth="1" style="93" min="12292" max="12292"/>
+    <col width="18.44140625" customWidth="1" style="93" min="12293" max="12293"/>
+    <col width="13.109375" customWidth="1" style="93" min="12294" max="12295"/>
+    <col width="14.109375" customWidth="1" style="93" min="12296" max="12296"/>
+    <col width="12.109375" customWidth="1" style="93" min="12297" max="12297"/>
+    <col width="9.44140625" customWidth="1" style="93" min="12298" max="12298"/>
+    <col width="15.33203125" customWidth="1" style="93" min="12299" max="12299"/>
+    <col width="10.33203125" customWidth="1" style="93" min="12300" max="12300"/>
+    <col width="15.44140625" customWidth="1" style="93" min="12301" max="12301"/>
+    <col width="8.77734375" customWidth="1" style="93" min="12302" max="12546"/>
+    <col width="5.44140625" customWidth="1" style="93" min="12547" max="12547"/>
+    <col width="15.6640625" customWidth="1" style="93" min="12548" max="12548"/>
+    <col width="18.44140625" customWidth="1" style="93" min="12549" max="12549"/>
+    <col width="13.109375" customWidth="1" style="93" min="12550" max="12551"/>
+    <col width="14.109375" customWidth="1" style="93" min="12552" max="12552"/>
+    <col width="12.109375" customWidth="1" style="93" min="12553" max="12553"/>
+    <col width="9.44140625" customWidth="1" style="93" min="12554" max="12554"/>
+    <col width="15.33203125" customWidth="1" style="93" min="12555" max="12555"/>
+    <col width="10.33203125" customWidth="1" style="93" min="12556" max="12556"/>
+    <col width="15.44140625" customWidth="1" style="93" min="12557" max="12557"/>
+    <col width="8.77734375" customWidth="1" style="93" min="12558" max="12802"/>
+    <col width="5.44140625" customWidth="1" style="93" min="12803" max="12803"/>
+    <col width="15.6640625" customWidth="1" style="93" min="12804" max="12804"/>
+    <col width="18.44140625" customWidth="1" style="93" min="12805" max="12805"/>
+    <col width="13.109375" customWidth="1" style="93" min="12806" max="12807"/>
+    <col width="14.109375" customWidth="1" style="93" min="12808" max="12808"/>
+    <col width="12.109375" customWidth="1" style="93" min="12809" max="12809"/>
+    <col width="9.44140625" customWidth="1" style="93" min="12810" max="12810"/>
+    <col width="15.33203125" customWidth="1" style="93" min="12811" max="12811"/>
+    <col width="10.33203125" customWidth="1" style="93" min="12812" max="12812"/>
+    <col width="15.44140625" customWidth="1" style="93" min="12813" max="12813"/>
+    <col width="8.77734375" customWidth="1" style="93" min="12814" max="13058"/>
+    <col width="5.44140625" customWidth="1" style="93" min="13059" max="13059"/>
+    <col width="15.6640625" customWidth="1" style="93" min="13060" max="13060"/>
+    <col width="18.44140625" customWidth="1" style="93" min="13061" max="13061"/>
+    <col width="13.109375" customWidth="1" style="93" min="13062" max="13063"/>
+    <col width="14.109375" customWidth="1" style="93" min="13064" max="13064"/>
+    <col width="12.109375" customWidth="1" style="93" min="13065" max="13065"/>
+    <col width="9.44140625" customWidth="1" style="93" min="13066" max="13066"/>
+    <col width="15.33203125" customWidth="1" style="93" min="13067" max="13067"/>
+    <col width="10.33203125" customWidth="1" style="93" min="13068" max="13068"/>
+    <col width="15.44140625" customWidth="1" style="93" min="13069" max="13069"/>
+    <col width="8.77734375" customWidth="1" style="93" min="13070" max="13314"/>
+    <col width="5.44140625" customWidth="1" style="93" min="13315" max="13315"/>
+    <col width="15.6640625" customWidth="1" style="93" min="13316" max="13316"/>
+    <col width="18.44140625" customWidth="1" style="93" min="13317" max="13317"/>
+    <col width="13.109375" customWidth="1" style="93" min="13318" max="13319"/>
+    <col width="14.109375" customWidth="1" style="93" min="13320" max="13320"/>
+    <col width="12.109375" customWidth="1" style="93" min="13321" max="13321"/>
+    <col width="9.44140625" customWidth="1" style="93" min="13322" max="13322"/>
+    <col width="15.33203125" customWidth="1" style="93" min="13323" max="13323"/>
+    <col width="10.33203125" customWidth="1" style="93" min="13324" max="13324"/>
+    <col width="15.44140625" customWidth="1" style="93" min="13325" max="13325"/>
+    <col width="8.77734375" customWidth="1" style="93" min="13326" max="13570"/>
+    <col width="5.44140625" customWidth="1" style="93" min="13571" max="13571"/>
+    <col width="15.6640625" customWidth="1" style="93" min="13572" max="13572"/>
+    <col width="18.44140625" customWidth="1" style="93" min="13573" max="13573"/>
+    <col width="13.109375" customWidth="1" style="93" min="13574" max="13575"/>
+    <col width="14.109375" customWidth="1" style="93" min="13576" max="13576"/>
+    <col width="12.109375" customWidth="1" style="93" min="13577" max="13577"/>
+    <col width="9.44140625" customWidth="1" style="93" min="13578" max="13578"/>
+    <col width="15.33203125" customWidth="1" style="93" min="13579" max="13579"/>
+    <col width="10.33203125" customWidth="1" style="93" min="13580" max="13580"/>
+    <col width="15.44140625" customWidth="1" style="93" min="13581" max="13581"/>
+    <col width="8.77734375" customWidth="1" style="93" min="13582" max="13826"/>
+    <col width="5.44140625" customWidth="1" style="93" min="13827" max="13827"/>
+    <col width="15.6640625" customWidth="1" style="93" min="13828" max="13828"/>
+    <col width="18.44140625" customWidth="1" style="93" min="13829" max="13829"/>
+    <col width="13.109375" customWidth="1" style="93" min="13830" max="13831"/>
+    <col width="14.109375" customWidth="1" style="93" min="13832" max="13832"/>
+    <col width="12.109375" customWidth="1" style="93" min="13833" max="13833"/>
+    <col width="9.44140625" customWidth="1" style="93" min="13834" max="13834"/>
+    <col width="15.33203125" customWidth="1" style="93" min="13835" max="13835"/>
+    <col width="10.33203125" customWidth="1" style="93" min="13836" max="13836"/>
+    <col width="15.44140625" customWidth="1" style="93" min="13837" max="13837"/>
+    <col width="8.77734375" customWidth="1" style="93" min="13838" max="14082"/>
+    <col width="5.44140625" customWidth="1" style="93" min="14083" max="14083"/>
+    <col width="15.6640625" customWidth="1" style="93" min="14084" max="14084"/>
+    <col width="18.44140625" customWidth="1" style="93" min="14085" max="14085"/>
+    <col width="13.109375" customWidth="1" style="93" min="14086" max="14087"/>
+    <col width="14.109375" customWidth="1" style="93" min="14088" max="14088"/>
+    <col width="12.109375" customWidth="1" style="93" min="14089" max="14089"/>
+    <col width="9.44140625" customWidth="1" style="93" min="14090" max="14090"/>
+    <col width="15.33203125" customWidth="1" style="93" min="14091" max="14091"/>
+    <col width="10.33203125" customWidth="1" style="93" min="14092" max="14092"/>
+    <col width="15.44140625" customWidth="1" style="93" min="14093" max="14093"/>
+    <col width="8.77734375" customWidth="1" style="93" min="14094" max="14338"/>
+    <col width="5.44140625" customWidth="1" style="93" min="14339" max="14339"/>
+    <col width="15.6640625" customWidth="1" style="93" min="14340" max="14340"/>
+    <col width="18.44140625" customWidth="1" style="93" min="14341" max="14341"/>
+    <col width="13.109375" customWidth="1" style="93" min="14342" max="14343"/>
+    <col width="14.109375" customWidth="1" style="93" min="14344" max="14344"/>
+    <col width="12.109375" customWidth="1" style="93" min="14345" max="14345"/>
+    <col width="9.44140625" customWidth="1" style="93" min="14346" max="14346"/>
+    <col width="15.33203125" customWidth="1" style="93" min="14347" max="14347"/>
+    <col width="10.33203125" customWidth="1" style="93" min="14348" max="14348"/>
+    <col width="15.44140625" customWidth="1" style="93" min="14349" max="14349"/>
+    <col width="8.77734375" customWidth="1" style="93" min="14350" max="14594"/>
+    <col width="5.44140625" customWidth="1" style="93" min="14595" max="14595"/>
+    <col width="15.6640625" customWidth="1" style="93" min="14596" max="14596"/>
+    <col width="18.44140625" customWidth="1" style="93" min="14597" max="14597"/>
+    <col width="13.109375" customWidth="1" style="93" min="14598" max="14599"/>
+    <col width="14.109375" customWidth="1" style="93" min="14600" max="14600"/>
+    <col width="12.109375" customWidth="1" style="93" min="14601" max="14601"/>
+    <col width="9.44140625" customWidth="1" style="93" min="14602" max="14602"/>
+    <col width="15.33203125" customWidth="1" style="93" min="14603" max="14603"/>
+    <col width="10.33203125" customWidth="1" style="93" min="14604" max="14604"/>
+    <col width="15.44140625" customWidth="1" style="93" min="14605" max="14605"/>
+    <col width="8.77734375" customWidth="1" style="93" min="14606" max="14850"/>
+    <col width="5.44140625" customWidth="1" style="93" min="14851" max="14851"/>
+    <col width="15.6640625" customWidth="1" style="93" min="14852" max="14852"/>
+    <col width="18.44140625" customWidth="1" style="93" min="14853" max="14853"/>
+    <col width="13.109375" customWidth="1" style="93" min="14854" max="14855"/>
+    <col width="14.109375" customWidth="1" style="93" min="14856" max="14856"/>
+    <col width="12.109375" customWidth="1" style="93" min="14857" max="14857"/>
+    <col width="9.44140625" customWidth="1" style="93" min="14858" max="14858"/>
+    <col width="15.33203125" customWidth="1" style="93" min="14859" max="14859"/>
+    <col width="10.33203125" customWidth="1" style="93" min="14860" max="14860"/>
+    <col width="15.44140625" customWidth="1" style="93" min="14861" max="14861"/>
+    <col width="8.77734375" customWidth="1" style="93" min="14862" max="15106"/>
+    <col width="5.44140625" customWidth="1" style="93" min="15107" max="15107"/>
+    <col width="15.6640625" customWidth="1" style="93" min="15108" max="15108"/>
+    <col width="18.44140625" customWidth="1" style="93" min="15109" max="15109"/>
+    <col width="13.109375" customWidth="1" style="93" min="15110" max="15111"/>
+    <col width="14.109375" customWidth="1" style="93" min="15112" max="15112"/>
+    <col width="12.109375" customWidth="1" style="93" min="15113" max="15113"/>
+    <col width="9.44140625" customWidth="1" style="93" min="15114" max="15114"/>
+    <col width="15.33203125" customWidth="1" style="93" min="15115" max="15115"/>
+    <col width="10.33203125" customWidth="1" style="93" min="15116" max="15116"/>
+    <col width="15.44140625" customWidth="1" style="93" min="15117" max="15117"/>
+    <col width="8.77734375" customWidth="1" style="93" min="15118" max="15362"/>
+    <col width="5.44140625" customWidth="1" style="93" min="15363" max="15363"/>
+    <col width="15.6640625" customWidth="1" style="93" min="15364" max="15364"/>
+    <col width="18.44140625" customWidth="1" style="93" min="15365" max="15365"/>
+    <col width="13.109375" customWidth="1" style="93" min="15366" max="15367"/>
+    <col width="14.109375" customWidth="1" style="93" min="15368" max="15368"/>
+    <col width="12.109375" customWidth="1" style="93" min="15369" max="15369"/>
+    <col width="9.44140625" customWidth="1" style="93" min="15370" max="15370"/>
+    <col width="15.33203125" customWidth="1" style="93" min="15371" max="15371"/>
+    <col width="10.33203125" customWidth="1" style="93" min="15372" max="15372"/>
+    <col width="15.44140625" customWidth="1" style="93" min="15373" max="15373"/>
+    <col width="8.77734375" customWidth="1" style="93" min="15374" max="15618"/>
+    <col width="5.44140625" customWidth="1" style="93" min="15619" max="15619"/>
+    <col width="15.6640625" customWidth="1" style="93" min="15620" max="15620"/>
+    <col width="18.44140625" customWidth="1" style="93" min="15621" max="15621"/>
+    <col width="13.109375" customWidth="1" style="93" min="15622" max="15623"/>
+    <col width="14.109375" customWidth="1" style="93" min="15624" max="15624"/>
+    <col width="12.109375" customWidth="1" style="93" min="15625" max="15625"/>
+    <col width="9.44140625" customWidth="1" style="93" min="15626" max="15626"/>
+    <col width="15.33203125" customWidth="1" style="93" min="15627" max="15627"/>
+    <col width="10.33203125" customWidth="1" style="93" min="15628" max="15628"/>
+    <col width="15.44140625" customWidth="1" style="93" min="15629" max="15629"/>
+    <col width="8.77734375" customWidth="1" style="93" min="15630" max="15874"/>
+    <col width="5.44140625" customWidth="1" style="93" min="15875" max="15875"/>
+    <col width="15.6640625" customWidth="1" style="93" min="15876" max="15876"/>
+    <col width="18.44140625" customWidth="1" style="93" min="15877" max="15877"/>
+    <col width="13.109375" customWidth="1" style="93" min="15878" max="15879"/>
+    <col width="14.109375" customWidth="1" style="93" min="15880" max="15880"/>
+    <col width="12.109375" customWidth="1" style="93" min="15881" max="15881"/>
+    <col width="9.44140625" customWidth="1" style="93" min="15882" max="15882"/>
+    <col width="15.33203125" customWidth="1" style="93" min="15883" max="15883"/>
+    <col width="10.33203125" customWidth="1" style="93" min="15884" max="15884"/>
+    <col width="15.44140625" customWidth="1" style="93" min="15885" max="15885"/>
+    <col width="8.77734375" customWidth="1" style="93" min="15886" max="16130"/>
+    <col width="5.44140625" customWidth="1" style="93" min="16131" max="16131"/>
+    <col width="15.6640625" customWidth="1" style="93" min="16132" max="16132"/>
+    <col width="18.44140625" customWidth="1" style="93" min="16133" max="16133"/>
+    <col width="13.109375" customWidth="1" style="93" min="16134" max="16135"/>
+    <col width="14.109375" customWidth="1" style="93" min="16136" max="16136"/>
+    <col width="12.109375" customWidth="1" style="93" min="16137" max="16137"/>
+    <col width="9.44140625" customWidth="1" style="93" min="16138" max="16138"/>
+    <col width="15.33203125" customWidth="1" style="93" min="16139" max="16139"/>
+    <col width="10.33203125" customWidth="1" style="93" min="16140" max="16140"/>
+    <col width="15.44140625" customWidth="1" style="93" min="16141" max="16141"/>
+    <col width="8.77734375" customWidth="1" style="93" min="16142" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.2" r="1" s="93">
+    <row r="1" ht="13.2" customHeight="1" s="93">
       <c r="A1" s="127" t="inlineStr">
         <is>
           <t>MEK</t>
@@ -2189,7 +2257,7 @@
       <c r="L1" s="17" t="n"/>
       <c r="M1" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="2" s="93">
+    <row r="2" ht="15" customHeight="1" s="93">
       <c r="A2" s="103" t="n"/>
       <c r="E2" s="38" t="n"/>
       <c r="F2" s="46" t="n"/>
@@ -2200,7 +2268,7 @@
       </c>
       <c r="J2" s="130" t="n"/>
     </row>
-    <row customHeight="1" ht="11.4" r="3" s="93">
+    <row r="3" ht="11.4" customHeight="1" s="93">
       <c r="A3" s="103" t="n"/>
       <c r="E3" s="38" t="n"/>
       <c r="F3" s="46" t="n"/>
@@ -2213,7 +2281,7 @@
       <c r="K3" s="100" t="n"/>
       <c r="N3" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="93">
+    <row r="4" ht="13.8" customHeight="1" s="93">
       <c r="A4" s="103" t="n"/>
       <c r="E4" s="38" t="n"/>
       <c r="F4" s="46" t="n"/>
@@ -2225,7 +2293,7 @@
       <c r="J4" s="130" t="n"/>
       <c r="K4" s="92" t="n"/>
     </row>
-    <row customHeight="1" ht="13.05" r="5" s="93">
+    <row r="5" ht="13.05" customHeight="1" s="93">
       <c r="A5" s="103" t="n"/>
       <c r="E5" s="38" t="n"/>
       <c r="F5" s="46" t="n"/>
@@ -2237,7 +2305,7 @@
       <c r="I5" s="43" t="n"/>
       <c r="J5" s="44" t="n"/>
     </row>
-    <row customHeight="1" ht="20.25" r="6" s="93">
+    <row r="6" ht="20.25" customHeight="1" s="93">
       <c r="A6" s="103" t="n"/>
       <c r="E6" s="38" t="n"/>
       <c r="F6" s="46" t="n"/>
@@ -2249,7 +2317,7 @@
       <c r="L6" s="17" t="n"/>
       <c r="M6" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="13.2" r="7" s="93">
+    <row r="7" ht="13.2" customHeight="1" s="93">
       <c r="A7" s="103" t="n"/>
       <c r="E7" s="38" t="n"/>
       <c r="F7" s="46" t="n"/>
@@ -2261,7 +2329,7 @@
       <c r="L7" s="17" t="n"/>
       <c r="M7" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="93" thickBot="1">
+    <row r="8" ht="13.8" customHeight="1" s="93" thickBot="1">
       <c r="A8" s="105" t="n"/>
       <c r="B8" s="106" t="n"/>
       <c r="C8" s="106" t="n"/>
@@ -2276,7 +2344,7 @@
       <c r="L8" s="17" t="n"/>
       <c r="M8" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="31.2" r="9" s="93" thickBot="1">
+    <row r="9" ht="31.2" customHeight="1" s="93" thickBot="1">
       <c r="A9" s="132" t="inlineStr">
         <is>
           <t>SİPARİŞ FORMU</t>
@@ -2295,7 +2363,7 @@
       <c r="L9" s="17" t="n"/>
       <c r="M9" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="23.4" r="10" s="93" thickBot="1">
+    <row r="10" ht="23.4" customHeight="1" s="93" thickBot="1">
       <c r="A10" s="64" t="n"/>
       <c r="B10" s="65" t="n"/>
       <c r="C10" s="65" t="n"/>
@@ -2310,7 +2378,7 @@
       <c r="L10" s="17" t="n"/>
       <c r="M10" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="93">
+    <row r="11" ht="13.8" customHeight="1" s="93">
       <c r="A11" s="74" t="n"/>
       <c r="B11" s="71" t="inlineStr">
         <is>
@@ -2319,7 +2387,7 @@
       </c>
       <c r="C11" s="68" t="inlineStr">
         <is>
-          <t>Shakira Project</t>
+          <t>21PK2998- 46</t>
         </is>
       </c>
       <c r="D11" s="67" t="n"/>
@@ -2331,7 +2399,7 @@
       <c r="F11" s="119" t="n"/>
       <c r="G11" s="86" t="inlineStr">
         <is>
-          <t>11-6-2022</t>
+          <t>24-2-2023</t>
         </is>
       </c>
       <c r="H11" s="119" t="n"/>
@@ -2339,7 +2407,7 @@
       <c r="J11" s="63" t="n"/>
       <c r="K11" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="93">
+    <row r="12" ht="13.8" customHeight="1" s="93">
       <c r="A12" s="75" t="n"/>
       <c r="B12" s="72" t="inlineStr">
         <is>
@@ -2347,7 +2415,7 @@
         </is>
       </c>
       <c r="C12" s="69" t="n">
-        <v>44723.65663377351</v>
+        <v>44981.40524883462</v>
       </c>
       <c r="D12" s="60" t="n"/>
       <c r="E12" s="96" t="inlineStr">
@@ -2365,7 +2433,7 @@
       <c r="I12" s="62" t="n"/>
       <c r="J12" s="63" t="n"/>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="93" thickBot="1">
+    <row r="13" ht="13.8" customHeight="1" s="93" thickBot="1">
       <c r="A13" s="75" t="n"/>
       <c r="B13" s="73" t="inlineStr">
         <is>
@@ -2374,7 +2442,7 @@
       </c>
       <c r="C13" s="70" t="inlineStr">
         <is>
-          <t>Denmar</t>
+          <t>Mekmer</t>
         </is>
       </c>
       <c r="D13" s="61" t="n"/>
@@ -2393,7 +2461,7 @@
       <c r="I13" s="62" t="n"/>
       <c r="J13" s="63" t="n"/>
     </row>
-    <row customHeight="1" ht="13.05" r="14" s="93" thickBot="1">
+    <row r="14" ht="13.05" customHeight="1" s="93" thickBot="1">
       <c r="A14" s="53" t="n"/>
       <c r="B14" s="54" t="n"/>
       <c r="C14" s="55" t="n"/>
@@ -2405,7 +2473,7 @@
       <c r="I14" s="55" t="n"/>
       <c r="J14" s="59" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="15" s="20" thickBot="1">
+    <row r="15" ht="15.75" customFormat="1" customHeight="1" s="20" thickBot="1">
       <c r="A15" s="123" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2455,7 +2523,7 @@
       <c r="K15" s="9" t="n"/>
       <c r="L15" s="9" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.4" r="16" s="20" thickBot="1">
+    <row r="16" ht="23.4" customFormat="1" customHeight="1" s="20" thickBot="1">
       <c r="A16" s="137" t="n"/>
       <c r="B16" s="138" t="n"/>
       <c r="C16" s="138" t="n"/>
@@ -2477,18 +2545,18 @@
       <c r="K16" s="9" t="n"/>
       <c r="L16" s="9" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="17" s="20">
+    <row r="17" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A17" s="48" t="n">
         <v>1</v>
       </c>
       <c r="B17" s="49" t="inlineStr">
         <is>
-          <t>Travertine Tiles - Classic Cream Vein Cut - Dolgulu&amp;Yarı Cilalı - 30,5x61x1,2 (4139 Adet)</t>
+          <t>Traverten-Classic Vein Cut 1.Sınıf-Dolgulu&amp;Honlu-30,5X61,0X1,2 (160 adetli) (2241 Adet)</t>
         </is>
       </c>
       <c r="C17" s="49" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D17" s="48" t="inlineStr">
@@ -2496,29 +2564,29 @@
           <t>30,5x61,0x1,2</t>
         </is>
       </c>
-      <c r="E17" s="50" t="n"/>
+      <c r="E17" s="50" t="n">
+        <v>0</v>
+      </c>
       <c r="F17" s="49" t="inlineStr"/>
       <c r="G17" s="50" t="n">
-        <v>770.0599999999999</v>
+        <v>267.93</v>
       </c>
       <c r="H17" s="50" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I17" s="51" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
+      <c r="I17" s="51" t="n">
+        <v>19.13</v>
       </c>
       <c r="J17" s="51" t="n">
-        <v>85476.65999999999</v>
+        <v>5125.5009</v>
       </c>
       <c r="K17" s="52" t="n"/>
       <c r="L17" s="16" t="n"/>
       <c r="M17" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="18" s="20">
+    <row r="18" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A18" s="48" t="n"/>
       <c r="B18" s="77" t="n"/>
       <c r="C18" s="77" t="n"/>
@@ -2533,7 +2601,7 @@
       <c r="L18" s="21" t="n"/>
       <c r="M18" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="19" s="20">
+    <row r="19" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A19" s="48" t="n"/>
       <c r="B19" s="77" t="n"/>
       <c r="C19" s="77" t="n"/>
@@ -2548,7 +2616,7 @@
       <c r="L19" s="21" t="n"/>
       <c r="M19" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="20" s="20">
+    <row r="20" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A20" s="48" t="n"/>
       <c r="B20" s="77" t="n"/>
       <c r="C20" s="77" t="n"/>
@@ -2559,13 +2627,13 @@
       <c r="H20" s="50" t="n"/>
       <c r="I20" s="51" t="n"/>
       <c r="J20" s="51" t="n">
-        <v>85476.65999999999</v>
+        <v>5125.5009</v>
       </c>
       <c r="K20" s="48" t="n"/>
       <c r="L20" s="21" t="n"/>
       <c r="M20" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="21" s="20">
+    <row r="21" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A21" s="22" t="n"/>
       <c r="B21" s="78" t="n"/>
       <c r="C21" s="78" t="n"/>
@@ -2580,7 +2648,7 @@
       <c r="L21" s="21" t="n"/>
       <c r="M21" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="22" s="20">
+    <row r="22" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A22" s="22" t="n"/>
       <c r="B22" s="78" t="n"/>
       <c r="C22" s="78" t="n"/>
@@ -2595,7 +2663,7 @@
       <c r="L22" s="21" t="n"/>
       <c r="M22" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="23" s="20">
+    <row r="23" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A23" s="22" t="n"/>
       <c r="B23" s="78" t="n"/>
       <c r="C23" s="78" t="n"/>
@@ -2610,7 +2678,7 @@
       <c r="L23" s="21" t="n"/>
       <c r="M23" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="24" s="20">
+    <row r="24" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A24" s="22" t="n"/>
       <c r="B24" s="78" t="n"/>
       <c r="C24" s="78" t="n"/>
@@ -2625,7 +2693,7 @@
       <c r="L24" s="21" t="n"/>
       <c r="M24" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="25" s="20">
+    <row r="25" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A25" s="22" t="n"/>
       <c r="B25" s="78" t="n"/>
       <c r="C25" s="78" t="n"/>
@@ -2640,7 +2708,7 @@
       <c r="L25" s="21" t="n"/>
       <c r="M25" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="26" s="20">
+    <row r="26" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A26" s="22" t="n"/>
       <c r="B26" s="78" t="n"/>
       <c r="C26" s="78" t="n"/>
@@ -2655,7 +2723,7 @@
       <c r="L26" s="21" t="n"/>
       <c r="M26" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="27" s="20">
+    <row r="27" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A27" s="22" t="n"/>
       <c r="B27" s="78" t="n"/>
       <c r="C27" s="78" t="n"/>
@@ -2670,7 +2738,7 @@
       <c r="L27" s="21" t="n"/>
       <c r="M27" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="28" s="20">
+    <row r="28" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A28" s="22" t="n"/>
       <c r="B28" s="78" t="n"/>
       <c r="C28" s="78" t="n"/>
@@ -2685,7 +2753,7 @@
       <c r="L28" s="21" t="n"/>
       <c r="M28" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="29" s="20">
+    <row r="29" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A29" s="22" t="n"/>
       <c r="B29" s="79" t="n"/>
       <c r="C29" s="79" t="n"/>
@@ -2700,7 +2768,7 @@
       <c r="L29" s="21" t="n"/>
       <c r="M29" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="30" s="20">
+    <row r="30" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A30" s="22" t="n"/>
       <c r="B30" s="79" t="n"/>
       <c r="C30" s="79" t="n"/>
@@ -2715,7 +2783,7 @@
       <c r="L30" s="21" t="n"/>
       <c r="M30" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="31" s="20">
+    <row r="31" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A31" s="22" t="n"/>
       <c r="B31" s="79" t="n"/>
       <c r="C31" s="79" t="n"/>
@@ -2730,7 +2798,7 @@
       <c r="L31" s="21" t="n"/>
       <c r="M31" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="32" s="20">
+    <row r="32" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A32" s="22" t="n"/>
       <c r="B32" s="79" t="n"/>
       <c r="C32" s="79" t="n"/>
@@ -2745,7 +2813,7 @@
       <c r="L32" s="21" t="n"/>
       <c r="M32" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="33" s="20">
+    <row r="33" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A33" s="22" t="n"/>
       <c r="B33" s="79" t="n"/>
       <c r="C33" s="79" t="n"/>
@@ -2764,13 +2832,13 @@
       </c>
       <c r="I33" s="24" t="n"/>
       <c r="J33" s="28" t="n">
-        <v>85476.65999999999</v>
+        <v>5125.5009</v>
       </c>
       <c r="K33" s="22" t="n"/>
       <c r="L33" s="21" t="n"/>
       <c r="M33" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.2" r="34" s="20">
+    <row r="34" ht="22.2" customFormat="1" customHeight="1" s="20">
       <c r="A34" s="22" t="n"/>
       <c r="B34" s="79" t="n"/>
       <c r="C34" s="79" t="n"/>
@@ -2785,7 +2853,7 @@
       <c r="L34" s="21" t="n"/>
       <c r="M34" s="21" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="35" s="20">
+    <row r="35" ht="15.6" customFormat="1" customHeight="1" s="20">
       <c r="A35" t="inlineStr">
         <is>
           <t>SAYIN İLGİLİ,</t>
@@ -2798,7 +2866,7 @@
       <c r="F35" s="30" t="n"/>
       <c r="J35" s="27" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="36" s="20">
+    <row r="36" ht="13.2" customFormat="1" customHeight="1" s="20">
       <c r="A36" t="inlineStr">
         <is>
           <t>SİPARİŞİ ONAYLAYINIZ.</t>
@@ -2815,7 +2883,7 @@
       <c r="L36" s="1" t="n"/>
       <c r="M36" s="1" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="37" s="20">
+    <row r="37" ht="13.2" customFormat="1" customHeight="1" s="20">
       <c r="A37" s="19" t="inlineStr">
         <is>
           <t>TESLİM TARİHİNİ BİLDİRİNİZ</t>
@@ -2832,7 +2900,7 @@
       <c r="L37" s="1" t="n"/>
       <c r="M37" s="1" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="38" s="20">
+    <row r="38" ht="13.2" customFormat="1" customHeight="1" s="20">
       <c r="A38" s="19" t="n"/>
       <c r="B38" s="30" t="n"/>
       <c r="C38" s="30" t="n"/>
@@ -2845,7 +2913,7 @@
       <c r="L38" s="1" t="n"/>
       <c r="M38" s="1" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="39" s="20">
+    <row r="39" ht="13.2" customFormat="1" customHeight="1" s="20">
       <c r="A39" s="19" t="n"/>
       <c r="B39" s="30" t="n"/>
       <c r="C39" s="30" t="n"/>
@@ -2858,7 +2926,7 @@
       <c r="L39" s="1" t="n"/>
       <c r="M39" s="1" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="40" s="20">
+    <row r="40" ht="13.2" customFormat="1" customHeight="1" s="20">
       <c r="A40" s="19" t="inlineStr">
         <is>
           <t>Şartlar</t>
@@ -2875,7 +2943,7 @@
       <c r="L40" s="1" t="n"/>
       <c r="M40" s="1" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="41" s="20">
+    <row r="41" ht="13.2" customFormat="1" customHeight="1" s="20">
       <c r="A41" s="19" t="inlineStr">
         <is>
           <t>1. Malzeme aynen yukarida belirtildigi gibi tüm detaylara uygun olarak hazirlanmalıdır.</t>
@@ -2892,7 +2960,7 @@
       <c r="L41" s="1" t="n"/>
       <c r="M41" s="1" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.8" r="42" s="20">
+    <row r="42" ht="13.8" customFormat="1" customHeight="1" s="20">
       <c r="A42" s="19" t="inlineStr">
         <is>
           <t>2. Bütün kasalar ISPM 15 standartlarına göre işlem görmüş olucak.</t>
@@ -2909,7 +2977,7 @@
       <c r="L42" s="1" t="n"/>
       <c r="M42" s="1" t="n"/>
     </row>
-    <row customFormat="1" r="43" s="20">
+    <row r="43" customFormat="1" s="20">
       <c r="A43" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">3. Etiketler tarafımızdan gönderilecektir. </t>
@@ -2921,7 +2989,7 @@
       <c r="E43" s="34" t="n"/>
       <c r="F43" s="30" t="n"/>
     </row>
-    <row customFormat="1" r="44" s="20">
+    <row r="44" customFormat="1" s="20">
       <c r="A44" t="inlineStr">
         <is>
           <t>4.</t>
@@ -2933,7 +3001,7 @@
       <c r="E44" s="34" t="n"/>
       <c r="F44" s="30" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.8" r="45" s="20">
+    <row r="45" ht="13.8" customFormat="1" customHeight="1" s="20">
       <c r="A45" s="8" t="inlineStr">
         <is>
           <t>5.</t>
@@ -2945,7 +3013,7 @@
       <c r="E45" s="34" t="n"/>
       <c r="F45" s="30" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.8" r="46" s="20">
+    <row r="46" ht="13.8" customFormat="1" customHeight="1" s="20">
       <c r="A46" s="19" t="inlineStr">
         <is>
           <t>5. Belirtilen şartlara uymayan malzemelerin tüm sorumluluğu üreticiye aittir.</t>
@@ -2957,7 +3025,7 @@
       <c r="E46" s="34" t="n"/>
       <c r="F46" s="30" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.8" r="47" s="20">
+    <row r="47" ht="13.8" customFormat="1" customHeight="1" s="20">
       <c r="A47" s="7" t="n"/>
       <c r="B47" s="30" t="n"/>
       <c r="C47" s="30" t="n"/>
@@ -2965,7 +3033,7 @@
       <c r="E47" s="34" t="n"/>
       <c r="F47" s="30" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="48" s="20">
+    <row r="48" ht="15.6" customFormat="1" customHeight="1" s="20">
       <c r="A48" s="19" t="inlineStr">
         <is>
           <t>SAYGILARIMIZLA</t>
@@ -2981,7 +3049,7 @@
       <c r="K48" s="6" t="n"/>
       <c r="L48" s="5" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="49" s="20">
+    <row r="49" ht="15" customFormat="1" customHeight="1" s="20">
       <c r="B49" s="30" t="n"/>
       <c r="C49" s="30" t="n"/>
       <c r="D49" s="30" t="n"/>
@@ -2992,7 +3060,7 @@
       <c r="K49" s="6" t="n"/>
       <c r="L49" s="6" t="n"/>
     </row>
-    <row customFormat="1" r="50" s="20">
+    <row r="50" customFormat="1" s="20">
       <c r="A50" s="26" t="inlineStr">
         <is>
           <t>** Sipariş formu, sadece yukarıda belirtilen şahıs ya da firma adına düzenlemiştir ve onun tarafından kullabilir. Herhangi bir sorunuz olması durumunda yukarıda verilen numaralardan bize ulaşabilirsiniz.</t>
@@ -3004,21 +3072,21 @@
       <c r="E50" s="34" t="n"/>
       <c r="F50" s="30" t="n"/>
     </row>
-    <row customFormat="1" r="51" s="20">
+    <row r="51" customFormat="1" s="20">
       <c r="B51" s="30" t="n"/>
       <c r="C51" s="30" t="n"/>
       <c r="D51" s="30" t="n"/>
       <c r="E51" s="34" t="n"/>
       <c r="F51" s="30" t="n"/>
     </row>
-    <row customFormat="1" r="52" s="20">
+    <row r="52" customFormat="1" s="20">
       <c r="B52" s="30" t="n"/>
       <c r="C52" s="30" t="n"/>
       <c r="D52" s="30" t="n"/>
       <c r="E52" s="34" t="n"/>
       <c r="F52" s="30" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="53" s="20">
+    <row r="53" ht="15.6" customFormat="1" customHeight="1" s="20">
       <c r="B53" s="30" t="n"/>
       <c r="C53" s="30" t="n"/>
       <c r="D53" s="30" t="n"/>
@@ -3027,28 +3095,28 @@
       <c r="I53" s="5" t="n"/>
       <c r="J53" s="5" t="n"/>
     </row>
-    <row customFormat="1" r="54" s="20">
+    <row r="54" customFormat="1" s="20">
       <c r="B54" s="30" t="n"/>
       <c r="C54" s="30" t="n"/>
       <c r="D54" s="30" t="n"/>
       <c r="E54" s="34" t="n"/>
       <c r="F54" s="30" t="n"/>
     </row>
-    <row customFormat="1" r="55" s="20">
+    <row r="55" customFormat="1" s="20">
       <c r="B55" s="30" t="n"/>
       <c r="C55" s="30" t="n"/>
       <c r="D55" s="30" t="n"/>
       <c r="E55" s="34" t="n"/>
       <c r="F55" s="30" t="n"/>
     </row>
-    <row customFormat="1" r="56" s="20">
+    <row r="56" customFormat="1" s="20">
       <c r="B56" s="30" t="n"/>
       <c r="C56" s="30" t="n"/>
       <c r="D56" s="30" t="n"/>
       <c r="E56" s="34" t="n"/>
       <c r="F56" s="30" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="57" s="20">
+    <row r="57" ht="15.6" customFormat="1" customHeight="1" s="20">
       <c r="B57" s="30" t="n"/>
       <c r="C57" s="30" t="n"/>
       <c r="D57" s="30" t="n"/>
@@ -3057,21 +3125,21 @@
       <c r="I57" s="5" t="n"/>
       <c r="J57" s="5" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.8" r="58" s="20">
+    <row r="58" ht="13.8" customFormat="1" customHeight="1" s="20">
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="30" t="n"/>
       <c r="D58" s="30" t="n"/>
       <c r="E58" s="34" t="n"/>
       <c r="F58" s="30" t="n"/>
     </row>
-    <row customFormat="1" r="62" s="20">
+    <row r="62" customFormat="1" s="20">
       <c r="B62" s="30" t="n"/>
       <c r="C62" s="30" t="n"/>
       <c r="D62" s="30" t="n"/>
       <c r="E62" s="34" t="n"/>
       <c r="F62" s="30" t="n"/>
     </row>
-    <row customFormat="1" r="63" s="20">
+    <row r="63" customFormat="1" s="20">
       <c r="B63" s="30" t="n"/>
       <c r="C63" s="30" t="n"/>
       <c r="D63" s="30" t="n"/>
@@ -3106,7 +3174,7 @@
     <mergeCell ref="E13:F13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.7480314960629921" footer="0.3149606299212598" header="0.3149606299212598" left="0.2362204724409449" right="0" top="0.7480314960629921"/>
+  <pageMargins left="0.2362204724409449" right="0" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="9" scale="62"/>
 </worksheet>
 </file>